--- a/inputs/es/LiST countries/VUT_databook.xlsx
+++ b/inputs/es/LiST countries/VUT_databook.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\.shortcut-targets-by-id\0B2k5hvlxN8FnTm9fb1c2alB2cjQ\Optima\Optima Nutrition\Development\LiST Optima bridge\App\es\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8256F128-AD54-4FF7-9C0F-2FED532DD1F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6C7BB2E0-DDB9-4CF0-9395-1113DA62C8B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="961" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="961" firstSheet="10" activeTab="21" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Entradas de población-año base" sheetId="1" r:id="rId1"/>
@@ -963,7 +963,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2089" uniqueCount="341">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2089" uniqueCount="344">
   <si>
     <t>Datos del año de referencia</t>
   </si>
@@ -1577,10 +1577,10 @@
     <t>Condición</t>
   </si>
   <si>
-    <t>Malnutrición aguda moderada (MAM)</t>
+    <t>MAM</t>
   </si>
   <si>
-    <t>Malnutrición Aguda Severa (MAS)</t>
+    <t>SAM</t>
   </si>
   <si>
     <t>Amplio grupo de población</t>
@@ -1787,6 +1787,9 @@
     <t>Estado de la peso para la talla (WHZ)</t>
   </si>
   <si>
+    <t>MAS</t>
+  </si>
+  <si>
     <t>Riesgo relativo de las causas de muerte según el estado de la anemia</t>
   </si>
   <si>
@@ -1986,6 +1989,12 @@
   </si>
   <si>
     <t>Efectividad en incidencia</t>
+  </si>
+  <si>
+    <t>Malnutrición Aguda Severa (MAS)</t>
+  </si>
+  <si>
+    <t>Malnutrición aguda moderada (MAM)</t>
   </si>
 </sst>
 </file>
@@ -2487,12 +2496,12 @@
     <xf numFmtId="9" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -3133,7 +3142,7 @@
       <c r="B30" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="C30" s="103">
+      <c r="C30" s="102">
         <v>0.11672141079999999</v>
       </c>
     </row>
@@ -3141,7 +3150,7 @@
       <c r="B31" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="C31" s="103">
+      <c r="C31" s="102">
         <v>0.1612750433</v>
       </c>
     </row>
@@ -3149,7 +3158,7 @@
       <c r="B32" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="C32" s="103">
+      <c r="C32" s="102">
         <v>0.49927488139999998</v>
       </c>
     </row>
@@ -4564,7 +4573,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4665,7 +4674,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="oCcRVZRVedfmPDxbHCUa1ha0G24FDzw2IMjTX9h9tZFpzudyFVu9UT7WzHBNxO0XVPbOKfliHBIYMSvq4TYM/g==" saltValue="Hsf1tSKIw5dAi8qT4gu3LQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="UwLpYKH4JCcE8Xq2IHJhvub/xD9AgH0IM4lV/9WRHgCSUxzpV8fBT3xa99cPLYJiF0GQRGEFzK/9+ANqj+gVIQ==" saltValue="Rz7LhHchEqdsBP8cBVtfDA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -11064,7 +11073,7 @@
       </c>
     </row>
     <row r="17" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="102" t="s">
+      <c r="B17" s="103" t="s">
         <v>149</v>
       </c>
       <c r="C17" s="67" t="s">
@@ -11422,7 +11431,7 @@
       </c>
     </row>
     <row r="34" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="102" t="s">
+      <c r="B34" s="103" t="s">
         <v>149</v>
       </c>
       <c r="C34" s="67" t="s">
@@ -11780,7 +11789,7 @@
       </c>
     </row>
     <row r="51" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="102" t="s">
+      <c r="B51" s="103" t="s">
         <v>149</v>
       </c>
       <c r="C51" s="67" t="s">
@@ -12244,7 +12253,7 @@
       </c>
     </row>
     <row r="70" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B70" s="102" t="s">
+      <c r="B70" s="103" t="s">
         <v>149</v>
       </c>
       <c r="C70" s="67" t="s">
@@ -12682,7 +12691,7 @@
       </c>
     </row>
     <row r="87" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B87" s="102" t="s">
+      <c r="B87" s="103" t="s">
         <v>149</v>
       </c>
       <c r="C87" s="67" t="s">
@@ -13120,7 +13129,7 @@
       </c>
     </row>
     <row r="104" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B104" s="102" t="s">
+      <c r="B104" s="103" t="s">
         <v>149</v>
       </c>
       <c r="C104" s="67" t="s">
@@ -13589,7 +13598,7 @@
       </c>
     </row>
     <row r="123" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B123" s="102" t="s">
+      <c r="B123" s="103" t="s">
         <v>149</v>
       </c>
       <c r="C123" s="67" t="s">
@@ -14027,7 +14036,7 @@
       </c>
     </row>
     <row r="140" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B140" s="102" t="s">
+      <c r="B140" s="103" t="s">
         <v>149</v>
       </c>
       <c r="C140" s="67" t="s">
@@ -14465,7 +14474,7 @@
       </c>
     </row>
     <row r="157" spans="2:8" ht="13" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B157" s="102" t="s">
+      <c r="B157" s="103" t="s">
         <v>149</v>
       </c>
       <c r="C157" s="67" t="s">
@@ -15773,8 +15782,8 @@
   </sheetPr>
   <dimension ref="A1:P328"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32:C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -16648,7 +16657,7 @@
     </row>
     <row r="33" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C33" s="83" t="s">
-        <v>205</v>
+        <v>274</v>
       </c>
       <c r="D33" s="90">
         <v>1</v>
@@ -16763,7 +16772,7 @@
     </row>
     <row r="37" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C37" s="83" t="s">
-        <v>205</v>
+        <v>274</v>
       </c>
       <c r="D37" s="90">
         <v>1</v>
@@ -16878,7 +16887,7 @@
     </row>
     <row r="41" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C41" s="83" t="s">
-        <v>205</v>
+        <v>274</v>
       </c>
       <c r="D41" s="90">
         <v>1</v>
@@ -16993,7 +17002,7 @@
     </row>
     <row r="45" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C45" s="83" t="s">
-        <v>205</v>
+        <v>274</v>
       </c>
       <c r="D45" s="90">
         <v>1</v>
@@ -17108,7 +17117,7 @@
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C49" s="83" t="s">
-        <v>205</v>
+        <v>274</v>
       </c>
       <c r="D49" s="90">
         <v>1</v>
@@ -17223,7 +17232,7 @@
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C53" s="83" t="s">
-        <v>205</v>
+        <v>274</v>
       </c>
       <c r="D53" s="90">
         <v>1</v>
@@ -17255,7 +17264,7 @@
     </row>
     <row r="55" spans="1:16" s="70" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="60" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="56" spans="1:16" ht="13" customHeight="1" x14ac:dyDescent="0.3">
@@ -17266,7 +17275,7 @@
         <v>265</v>
       </c>
       <c r="C56" s="80" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D56" s="62" t="s">
         <v>112</v>
@@ -17292,7 +17301,7 @@
         <v>91</v>
       </c>
       <c r="C57" s="83" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D57" s="89">
         <v>1</v>
@@ -17314,7 +17323,7 @@
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C58" s="83" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D58" s="90">
         <v>10.675000000000001</v>
@@ -17339,7 +17348,7 @@
         <v>92</v>
       </c>
       <c r="C59" s="83" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D59" s="89">
         <v>1</v>
@@ -17361,7 +17370,7 @@
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C60" s="83" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D60" s="90">
         <v>10.675000000000001</v>
@@ -17386,7 +17395,7 @@
         <v>93</v>
       </c>
       <c r="C61" s="83" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D61" s="89">
         <v>1</v>
@@ -17408,7 +17417,7 @@
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C62" s="83" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D62" s="90">
         <v>10.675000000000001</v>
@@ -17434,7 +17443,7 @@
     </row>
     <row r="64" spans="1:16" s="70" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="60" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="65" spans="1:16" ht="26" customHeight="1" x14ac:dyDescent="0.3">
@@ -17445,7 +17454,7 @@
         <v>265</v>
       </c>
       <c r="C65" s="80" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D65" s="62" t="s">
         <v>67</v>
@@ -18509,7 +18518,7 @@
     </row>
     <row r="103" spans="1:16" s="70" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="60" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="104" spans="1:16" ht="26" customHeight="1" x14ac:dyDescent="0.3">
@@ -18520,7 +18529,7 @@
         <v>122</v>
       </c>
       <c r="C104" s="80" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D104" s="62" t="s">
         <v>67</v>
@@ -19441,7 +19450,7 @@
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C143" s="83" t="s">
-        <v>205</v>
+        <v>274</v>
       </c>
       <c r="D143" s="119">
         <f t="shared" si="3"/>
@@ -19544,7 +19553,7 @@
     </row>
     <row r="147" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C147" s="83" t="s">
-        <v>205</v>
+        <v>274</v>
       </c>
       <c r="D147" s="119">
         <f t="shared" si="3"/>
@@ -19647,7 +19656,7 @@
     </row>
     <row r="151" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C151" s="83" t="s">
-        <v>205</v>
+        <v>274</v>
       </c>
       <c r="D151" s="119">
         <f t="shared" si="4"/>
@@ -19750,7 +19759,7 @@
     </row>
     <row r="155" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C155" s="83" t="s">
-        <v>205</v>
+        <v>274</v>
       </c>
       <c r="D155" s="119">
         <f t="shared" si="4"/>
@@ -19853,7 +19862,7 @@
     </row>
     <row r="159" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C159" s="83" t="s">
-        <v>205</v>
+        <v>274</v>
       </c>
       <c r="D159" s="119">
         <f t="shared" si="4"/>
@@ -19956,7 +19965,7 @@
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C163" s="83" t="s">
-        <v>205</v>
+        <v>274</v>
       </c>
       <c r="D163" s="119">
         <f t="shared" si="5"/>
@@ -19985,7 +19994,7 @@
     </row>
     <row r="165" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A165" s="60" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B165" s="70"/>
       <c r="C165" s="70"/>
@@ -20003,7 +20012,7 @@
         <v>265</v>
       </c>
       <c r="C166" s="80" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D166" s="62" t="s">
         <v>112</v>
@@ -20025,7 +20034,7 @@
         <v>91</v>
       </c>
       <c r="C167" s="83" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D167" s="119">
         <f t="shared" ref="D167:G172" si="6">D57*0.7</f>
@@ -20047,7 +20056,7 @@
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C168" s="83" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D168" s="119">
         <f t="shared" si="6"/>
@@ -20072,7 +20081,7 @@
         <v>92</v>
       </c>
       <c r="C169" s="83" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D169" s="119">
         <f t="shared" si="6"/>
@@ -20094,7 +20103,7 @@
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C170" s="83" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D170" s="119">
         <f t="shared" si="6"/>
@@ -20119,7 +20128,7 @@
         <v>93</v>
       </c>
       <c r="C171" s="83" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D171" s="119">
         <f t="shared" si="6"/>
@@ -20141,7 +20150,7 @@
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C172" s="83" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D172" s="119">
         <f t="shared" si="6"/>
@@ -20167,7 +20176,7 @@
     </row>
     <row r="174" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A174" s="60" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B174" s="70"/>
       <c r="C174" s="70"/>
@@ -20185,7 +20194,7 @@
         <v>265</v>
       </c>
       <c r="C175" s="80" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D175" s="62" t="s">
         <v>67</v>
@@ -21097,7 +21106,7 @@
     </row>
     <row r="213" spans="1:9" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A213" s="60" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B213" s="70"/>
       <c r="C213" s="70"/>
@@ -21115,7 +21124,7 @@
         <v>122</v>
       </c>
       <c r="C214" s="80" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D214" s="62" t="s">
         <v>67</v>
@@ -22043,7 +22052,7 @@
     </row>
     <row r="253" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C253" s="83" t="s">
-        <v>205</v>
+        <v>274</v>
       </c>
       <c r="D253" s="119">
         <f t="shared" si="13"/>
@@ -22150,7 +22159,7 @@
     </row>
     <row r="257" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C257" s="83" t="s">
-        <v>205</v>
+        <v>274</v>
       </c>
       <c r="D257" s="119">
         <f t="shared" si="13"/>
@@ -22257,7 +22266,7 @@
     </row>
     <row r="261" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C261" s="83" t="s">
-        <v>205</v>
+        <v>274</v>
       </c>
       <c r="D261" s="119">
         <f t="shared" si="14"/>
@@ -22364,7 +22373,7 @@
     </row>
     <row r="265" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C265" s="83" t="s">
-        <v>205</v>
+        <v>274</v>
       </c>
       <c r="D265" s="119">
         <f t="shared" si="14"/>
@@ -22471,7 +22480,7 @@
     </row>
     <row r="269" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C269" s="83" t="s">
-        <v>205</v>
+        <v>274</v>
       </c>
       <c r="D269" s="119">
         <f t="shared" si="14"/>
@@ -22578,7 +22587,7 @@
     </row>
     <row r="273" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C273" s="83" t="s">
-        <v>205</v>
+        <v>274</v>
       </c>
       <c r="D273" s="119">
         <f t="shared" si="15"/>
@@ -22608,7 +22617,7 @@
     </row>
     <row r="275" spans="1:9" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A275" s="60" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B275" s="70"/>
       <c r="C275" s="70"/>
@@ -22627,7 +22636,7 @@
         <v>265</v>
       </c>
       <c r="C276" s="80" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D276" s="62" t="s">
         <v>112</v>
@@ -22649,7 +22658,7 @@
         <v>91</v>
       </c>
       <c r="C277" s="83" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D277" s="119">
         <f t="shared" ref="D277:G282" si="16">D57*1.2</f>
@@ -22671,7 +22680,7 @@
     </row>
     <row r="278" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C278" s="83" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D278" s="119">
         <f t="shared" si="16"/>
@@ -22696,7 +22705,7 @@
         <v>92</v>
       </c>
       <c r="C279" s="83" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D279" s="119">
         <f t="shared" si="16"/>
@@ -22718,7 +22727,7 @@
     </row>
     <row r="280" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C280" s="83" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D280" s="119">
         <f t="shared" si="16"/>
@@ -22743,7 +22752,7 @@
         <v>93</v>
       </c>
       <c r="C281" s="83" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D281" s="119">
         <f t="shared" si="16"/>
@@ -22765,7 +22774,7 @@
     </row>
     <row r="282" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C282" s="83" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D282" s="119">
         <f t="shared" si="16"/>
@@ -22791,7 +22800,7 @@
     </row>
     <row r="284" spans="1:9" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A284" s="60" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B284" s="70"/>
       <c r="C284" s="70"/>
@@ -22810,7 +22819,7 @@
         <v>265</v>
       </c>
       <c r="C285" s="80" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D285" s="62" t="s">
         <v>67</v>
@@ -23759,7 +23768,7 @@
     </row>
     <row r="323" spans="1:9" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A323" s="60" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B323" s="70"/>
       <c r="C323" s="70"/>
@@ -23778,7 +23787,7 @@
         <v>122</v>
       </c>
       <c r="C324" s="80" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D324" s="62" t="s">
         <v>67</v>
@@ -23899,7 +23908,6 @@
       <c r="I328" s="78"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="gHW1yfUCyQ+RwqESgWyh8TCcB78xhsFamj+CNDjioW160ilGJKQx2Rt4OfClUPypHH52sTIrprul6Zjcfdu5Ag==" saltValue="Imjwrw1LZZsi/oHsWCF3QA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -23912,7 +23920,7 @@
   </sheetPr>
   <dimension ref="A1:G67"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A19" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="C67" sqref="C67"/>
     </sheetView>
   </sheetViews>
@@ -23931,7 +23939,7 @@
   <sheetData>
     <row r="1" spans="1:7" s="70" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="60" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -23957,10 +23965,10 @@
     </row>
     <row r="3" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="71" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C3" s="90" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D3" s="90">
         <v>45</v>
@@ -23978,7 +23986,7 @@
     <row r="4" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="57"/>
       <c r="B4" s="75" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C4" s="90">
         <v>1.0249999999999999</v>
@@ -23998,7 +24006,7 @@
     </row>
     <row r="5" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="63" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -24091,7 +24099,7 @@
     </row>
     <row r="11" spans="1:7" s="70" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="60" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -24121,7 +24129,7 @@
     </row>
     <row r="14" spans="1:7" s="70" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="60" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -24129,7 +24137,7 @@
         <v>272</v>
       </c>
       <c r="B15" s="75" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C15" s="90">
         <v>1.0249999999999999</v>
@@ -24150,7 +24158,7 @@
     <row r="16" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="57"/>
       <c r="B16" s="75" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C16" s="90">
         <v>1.0249999999999999</v>
@@ -24173,7 +24181,7 @@
         <v>111</v>
       </c>
       <c r="B17" s="71" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C17" s="90">
         <v>1</v>
@@ -24194,7 +24202,7 @@
     <row r="18" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="19" spans="1:7" s="70" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="60" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="20" spans="1:7" s="63" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -24235,7 +24243,7 @@
     </row>
     <row r="24" spans="1:7" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="60" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B24" s="70"/>
       <c r="C24" s="70"/>
@@ -24267,10 +24275,10 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B26" s="71" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C26" s="90" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D26" s="90">
         <f t="shared" ref="D26:G27" si="0">D3*0.9</f>
@@ -24292,7 +24300,7 @@
     <row r="27" spans="1:7" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="57"/>
       <c r="B27" s="75" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C27" s="90">
         <f>C4*0.9</f>
@@ -24317,12 +24325,12 @@
     </row>
     <row r="28" spans="1:7" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="63" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B29" s="75" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C29" s="90">
         <f t="shared" ref="C29:G32" si="1">C6*0.9</f>
@@ -24347,7 +24355,7 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B30" s="75" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C30" s="90">
         <f t="shared" si="1"/>
@@ -24372,7 +24380,7 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B31" s="75" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C31" s="90">
         <f t="shared" si="1"/>
@@ -24397,7 +24405,7 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B32" s="75" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C32" s="90">
         <f t="shared" si="1"/>
@@ -24430,7 +24438,7 @@
     </row>
     <row r="34" spans="1:7" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="60" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B34" s="70"/>
       <c r="C34" s="70"/>
@@ -24442,7 +24450,7 @@
     <row r="35" spans="1:7" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="63"/>
       <c r="B35" s="71" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C35" s="90">
         <f>C12*0.9</f>
@@ -24468,7 +24476,7 @@
     </row>
     <row r="37" spans="1:7" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="60" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B37" s="70"/>
       <c r="C37" s="70"/>
@@ -24482,7 +24490,7 @@
         <v>272</v>
       </c>
       <c r="B38" s="75" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C38" s="90">
         <f t="shared" ref="C38:G40" si="2">C15*0.9</f>
@@ -24508,7 +24516,7 @@
     <row r="39" spans="1:7" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="57"/>
       <c r="B39" s="75" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C39" s="90">
         <f t="shared" si="2"/>
@@ -24536,7 +24544,7 @@
         <v>111</v>
       </c>
       <c r="B40" s="71" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C40" s="90">
         <f t="shared" si="2"/>
@@ -24561,7 +24569,7 @@
     </row>
     <row r="42" spans="1:7" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="60" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B42" s="70"/>
       <c r="C42" s="70"/>
@@ -24589,7 +24597,7 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B44" s="71" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C44" s="90">
         <f>C21*0.9</f>
@@ -24615,7 +24623,7 @@
     </row>
     <row r="47" spans="1:7" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="60" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B47" s="70"/>
       <c r="C47" s="70"/>
@@ -24647,10 +24655,10 @@
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B49" s="71" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C49" s="90" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D49" s="90">
         <f t="shared" ref="D49:G50" si="3">D3*1.05</f>
@@ -24672,7 +24680,7 @@
     <row r="50" spans="1:7" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="57"/>
       <c r="B50" s="75" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C50" s="90">
         <f>C4*1.05</f>
@@ -24697,12 +24705,12 @@
     </row>
     <row r="51" spans="1:7" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="63" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B52" s="75" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C52" s="90">
         <f t="shared" ref="C52:G55" si="4">C6*1.05</f>
@@ -24727,7 +24735,7 @@
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B53" s="75" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C53" s="90">
         <f t="shared" si="4"/>
@@ -24752,7 +24760,7 @@
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B54" s="75" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C54" s="90">
         <f t="shared" si="4"/>
@@ -24777,7 +24785,7 @@
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B55" s="75" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C55" s="90">
         <f t="shared" si="4"/>
@@ -24810,7 +24818,7 @@
     </row>
     <row r="57" spans="1:7" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="60" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B57" s="70"/>
       <c r="C57" s="70"/>
@@ -24822,7 +24830,7 @@
     <row r="58" spans="1:7" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="63"/>
       <c r="B58" s="71" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C58" s="90">
         <f>C12*1.1</f>
@@ -24848,7 +24856,7 @@
     </row>
     <row r="60" spans="1:7" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="60" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B60" s="70"/>
       <c r="C60" s="70"/>
@@ -24862,7 +24870,7 @@
         <v>272</v>
       </c>
       <c r="B61" s="75" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C61" s="90">
         <f t="shared" ref="C61:G63" si="5">C15*1.05</f>
@@ -24888,7 +24896,7 @@
     <row r="62" spans="1:7" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="57"/>
       <c r="B62" s="75" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C62" s="90">
         <f t="shared" si="5"/>
@@ -24916,7 +24924,7 @@
         <v>111</v>
       </c>
       <c r="B63" s="71" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C63" s="90">
         <f t="shared" si="5"/>
@@ -24941,7 +24949,7 @@
     </row>
     <row r="65" spans="1:7" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="60" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B65" s="70"/>
       <c r="C65" s="70"/>
@@ -24969,7 +24977,7 @@
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B67" s="71" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C67" s="90">
         <f>C21*1.05</f>
@@ -25039,7 +25047,7 @@
         <v>166</v>
       </c>
       <c r="B2" s="75" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C2" s="90">
         <v>0.21</v>
@@ -25057,7 +25065,7 @@
     <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="75"/>
       <c r="B3" s="75" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C3" s="90">
         <v>1</v>
@@ -25077,7 +25085,7 @@
         <v>179</v>
       </c>
       <c r="B4" s="75" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C4" s="90">
         <v>0.15</v>
@@ -25095,7 +25103,7 @@
     <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="75"/>
       <c r="B5" s="75" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C5" s="90">
         <v>1</v>
@@ -25115,7 +25123,7 @@
         <v>180</v>
       </c>
       <c r="B6" s="75" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C6" s="90">
         <v>0.15</v>
@@ -25133,7 +25141,7 @@
     <row r="7" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="75"/>
       <c r="B7" s="75" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C7" s="90">
         <v>1</v>
@@ -25153,7 +25161,7 @@
         <v>181</v>
       </c>
       <c r="B8" s="75" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C8" s="90">
         <v>0.35</v>
@@ -25171,7 +25179,7 @@
     <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="75"/>
       <c r="B9" s="75" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C9" s="90">
         <v>1</v>
@@ -25191,7 +25199,7 @@
         <v>185</v>
       </c>
       <c r="B10" s="75" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C10" s="90">
         <v>0.35</v>
@@ -25209,7 +25217,7 @@
     <row r="11" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="75"/>
       <c r="B11" s="75" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C11" s="90">
         <v>1</v>
@@ -25229,7 +25237,7 @@
         <v>189</v>
       </c>
       <c r="B12" s="75" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C12" s="90">
         <v>0.23</v>
@@ -25247,7 +25255,7 @@
     <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="75"/>
       <c r="B13" s="75" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C13" s="90">
         <v>1</v>
@@ -25290,7 +25298,7 @@
         <v>166</v>
       </c>
       <c r="B17" s="75" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C17" s="90">
         <f t="shared" ref="C17:F28" si="0">C2*0.9</f>
@@ -25312,7 +25320,7 @@
     <row r="18" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="75"/>
       <c r="B18" s="75" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C18" s="90">
         <f t="shared" si="0"/>
@@ -25336,7 +25344,7 @@
         <v>179</v>
       </c>
       <c r="B19" s="75" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C19" s="90">
         <f t="shared" si="0"/>
@@ -25358,7 +25366,7 @@
     <row r="20" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="75"/>
       <c r="B20" s="75" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C20" s="90">
         <f t="shared" si="0"/>
@@ -25382,7 +25390,7 @@
         <v>180</v>
       </c>
       <c r="B21" s="75" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C21" s="90">
         <f t="shared" si="0"/>
@@ -25404,7 +25412,7 @@
     <row r="22" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="75"/>
       <c r="B22" s="75" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C22" s="90">
         <f t="shared" si="0"/>
@@ -25428,7 +25436,7 @@
         <v>181</v>
       </c>
       <c r="B23" s="75" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C23" s="90">
         <f t="shared" si="0"/>
@@ -25450,7 +25458,7 @@
     <row r="24" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="75"/>
       <c r="B24" s="75" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C24" s="90">
         <f t="shared" si="0"/>
@@ -25474,7 +25482,7 @@
         <v>185</v>
       </c>
       <c r="B25" s="75" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C25" s="90">
         <f t="shared" si="0"/>
@@ -25496,7 +25504,7 @@
     <row r="26" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="75"/>
       <c r="B26" s="75" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C26" s="90">
         <f t="shared" si="0"/>
@@ -25520,7 +25528,7 @@
         <v>189</v>
       </c>
       <c r="B27" s="75" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C27" s="90">
         <f t="shared" si="0"/>
@@ -25542,7 +25550,7 @@
     <row r="28" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="75"/>
       <c r="B28" s="75" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C28" s="90">
         <f t="shared" si="0"/>
@@ -25589,7 +25597,7 @@
         <v>166</v>
       </c>
       <c r="B32" s="75" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C32" s="90">
         <f t="shared" ref="C32:F43" si="1">C2*1.05</f>
@@ -25611,7 +25619,7 @@
     <row r="33" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="75"/>
       <c r="B33" s="75" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C33" s="90">
         <f t="shared" si="1"/>
@@ -25635,7 +25643,7 @@
         <v>179</v>
       </c>
       <c r="B34" s="75" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C34" s="90">
         <f t="shared" si="1"/>
@@ -25657,7 +25665,7 @@
     <row r="35" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="75"/>
       <c r="B35" s="75" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C35" s="90">
         <f t="shared" si="1"/>
@@ -25681,7 +25689,7 @@
         <v>180</v>
       </c>
       <c r="B36" s="75" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C36" s="90">
         <f t="shared" si="1"/>
@@ -25703,7 +25711,7 @@
     <row r="37" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="75"/>
       <c r="B37" s="75" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C37" s="90">
         <f t="shared" si="1"/>
@@ -25727,7 +25735,7 @@
         <v>181</v>
       </c>
       <c r="B38" s="75" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C38" s="90">
         <f t="shared" si="1"/>
@@ -25749,7 +25757,7 @@
     <row r="39" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="75"/>
       <c r="B39" s="75" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C39" s="90">
         <f t="shared" si="1"/>
@@ -25773,7 +25781,7 @@
         <v>185</v>
       </c>
       <c r="B40" s="75" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C40" s="90">
         <f t="shared" si="1"/>
@@ -25795,7 +25803,7 @@
     <row r="41" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="75"/>
       <c r="B41" s="75" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C41" s="90">
         <f t="shared" si="1"/>
@@ -25819,7 +25827,7 @@
         <v>189</v>
       </c>
       <c r="B42" s="75" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C42" s="90">
         <f t="shared" si="1"/>
@@ -25841,7 +25849,7 @@
     <row r="43" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="75"/>
       <c r="B43" s="75" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C43" s="90">
         <f t="shared" si="1"/>
@@ -25932,7 +25940,7 @@
     </row>
     <row r="2" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="57" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
@@ -26509,7 +26517,7 @@
     </row>
     <row r="17" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="57" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B17" s="71"/>
     </row>
@@ -26739,7 +26747,7 @@
     </row>
     <row r="25" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="57" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
@@ -27485,7 +27493,7 @@
     </row>
     <row r="40" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="57" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B40" s="71"/>
     </row>
@@ -27767,7 +27775,7 @@
     </row>
     <row r="48" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="57" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.25">
@@ -28513,7 +28521,7 @@
     </row>
     <row r="63" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="57" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B63" s="71"/>
     </row>
@@ -28793,7 +28801,7 @@
     </row>
     <row r="2" spans="1:7" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="57" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -28818,7 +28826,7 @@
     </row>
     <row r="4" spans="1:7" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="57" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B4" s="71"/>
       <c r="C4" s="120"/>
@@ -28849,7 +28857,7 @@
     </row>
     <row r="7" spans="1:7" s="91" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="91" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="13" customHeight="1" x14ac:dyDescent="0.3">
@@ -28873,7 +28881,7 @@
     </row>
     <row r="9" spans="1:7" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="57" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -28903,7 +28911,7 @@
     </row>
     <row r="11" spans="1:7" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="57" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B11" s="71"/>
       <c r="C11" s="120"/>
@@ -28939,7 +28947,7 @@
     </row>
     <row r="14" spans="1:7" s="91" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="91" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="13" customHeight="1" x14ac:dyDescent="0.3">
@@ -28963,7 +28971,7 @@
     </row>
     <row r="16" spans="1:7" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="57" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -28993,7 +29001,7 @@
     </row>
     <row r="18" spans="1:7" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="57" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B18" s="71"/>
       <c r="C18" s="120"/>
@@ -29064,10 +29072,10 @@
         <v>156</v>
       </c>
       <c r="B1" s="57" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C1" s="82" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="D1" s="57" t="s">
         <v>67</v>
@@ -29093,7 +29101,7 @@
         <v>81</v>
       </c>
       <c r="C2" s="29" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="D2" s="90">
         <v>0</v>
@@ -29113,7 +29121,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C3" s="29" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="D3" s="90">
         <v>0</v>
@@ -29133,7 +29141,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C4" s="29" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="D4" s="90">
         <v>0</v>
@@ -29156,10 +29164,10 @@
         <v>191</v>
       </c>
       <c r="B5" s="29" t="s">
-        <v>205</v>
+        <v>342</v>
       </c>
       <c r="C5" s="29" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="D5" s="90">
         <v>0</v>
@@ -29179,7 +29187,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C6" s="29" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="D6" s="90">
         <v>0</v>
@@ -29199,10 +29207,10 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B7" s="29" t="s">
-        <v>204</v>
+        <v>343</v>
       </c>
       <c r="C7" s="29" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="D7" s="90">
         <v>0</v>
@@ -29222,7 +29230,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C8" s="29" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="D8" s="90">
         <v>0</v>
@@ -29245,10 +29253,10 @@
         <v>184</v>
       </c>
       <c r="B9" s="29" t="s">
-        <v>205</v>
+        <v>342</v>
       </c>
       <c r="C9" s="29" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="D9" s="90">
         <v>0</v>
@@ -29268,7 +29276,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C10" s="29" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="D10" s="90">
         <v>0</v>
@@ -29288,10 +29296,10 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B11" s="29" t="s">
-        <v>204</v>
+        <v>343</v>
       </c>
       <c r="C11" s="29" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="D11" s="90">
         <v>0</v>
@@ -29311,7 +29319,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C12" s="29" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="D12" s="90">
         <v>0</v>
@@ -29334,10 +29342,10 @@
         <v>192</v>
       </c>
       <c r="B13" s="29" t="s">
-        <v>205</v>
+        <v>342</v>
       </c>
       <c r="C13" s="29" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="D13" s="90">
         <v>0</v>
@@ -29357,7 +29365,7 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C14" s="29" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="D14" s="90">
         <v>0</v>
@@ -29377,10 +29385,10 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B15" s="29" t="s">
-        <v>204</v>
+        <v>343</v>
       </c>
       <c r="C15" s="29" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="D15" s="90">
         <v>0</v>
@@ -29400,7 +29408,7 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C16" s="29" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="D16" s="90">
         <v>0</v>
@@ -29423,10 +29431,10 @@
         <v>169</v>
       </c>
       <c r="B17" s="29" t="s">
-        <v>205</v>
+        <v>342</v>
       </c>
       <c r="C17" s="29" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="D17" s="90">
         <v>0</v>
@@ -29446,7 +29454,7 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C18" s="29" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="D18" s="90">
         <v>0</v>
@@ -29466,10 +29474,10 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B19" s="29" t="s">
-        <v>204</v>
+        <v>343</v>
       </c>
       <c r="C19" s="29" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="D19" s="90">
         <v>0</v>
@@ -29489,7 +29497,7 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C20" s="29" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="D20" s="90">
         <v>0</v>
@@ -29515,7 +29523,7 @@
         <v>74</v>
       </c>
       <c r="C21" s="29" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="D21" s="90">
         <v>0.7</v>
@@ -29535,7 +29543,7 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C22" s="29" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="D22" s="90">
         <v>0.46</v>
@@ -29561,7 +29569,7 @@
         <v>74</v>
       </c>
       <c r="C23" s="29" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="D23" s="90">
         <v>0.7</v>
@@ -29581,7 +29589,7 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C24" s="29" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="D24" s="90">
         <v>0.46</v>
@@ -29607,7 +29615,7 @@
         <v>74</v>
       </c>
       <c r="C25" s="29" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="D25" s="90">
         <v>0.7</v>
@@ -29627,7 +29635,7 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C26" s="29" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="D26" s="90">
         <v>0.46</v>
@@ -29653,7 +29661,7 @@
         <v>81</v>
       </c>
       <c r="C27" s="29" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="D27" s="90">
         <v>1</v>
@@ -29673,7 +29681,7 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C28" s="29" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="D28" s="90">
         <v>0</v>
@@ -29693,7 +29701,7 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C29" s="29" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="D29" s="90">
         <v>0</v>
@@ -29719,7 +29727,7 @@
         <v>81</v>
       </c>
       <c r="C30" s="29" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="D30" s="90">
         <v>1</v>
@@ -29739,7 +29747,7 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C31" s="29" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="D31" s="90">
         <v>0</v>
@@ -29759,7 +29767,7 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C32" s="29" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="D32" s="90">
         <v>0</v>
@@ -29785,7 +29793,7 @@
         <v>81</v>
       </c>
       <c r="C33" s="29" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="D33" s="90">
         <v>1</v>
@@ -29805,7 +29813,7 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C34" s="29" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="D34" s="90">
         <v>0</v>
@@ -29825,7 +29833,7 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C35" s="29" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="D35" s="90">
         <v>0</v>
@@ -29851,7 +29859,7 @@
         <v>81</v>
       </c>
       <c r="C36" s="29" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="D36" s="90">
         <v>1</v>
@@ -29871,7 +29879,7 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C37" s="29" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="D37" s="90">
         <v>0</v>
@@ -29891,7 +29899,7 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C38" s="29" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="D38" s="90">
         <v>0</v>
@@ -29917,7 +29925,7 @@
         <v>81</v>
       </c>
       <c r="C39" s="29" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="D39" s="90">
         <v>1</v>
@@ -29937,7 +29945,7 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C40" s="29" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="D40" s="90">
         <v>0</v>
@@ -29957,7 +29965,7 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C41" s="29" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="D41" s="90">
         <v>0</v>
@@ -29983,7 +29991,7 @@
         <v>81</v>
       </c>
       <c r="C42" s="29" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="D42" s="90">
         <v>0.3</v>
@@ -30003,7 +30011,7 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C43" s="29" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="D43" s="90">
         <v>0.5</v>
@@ -30023,7 +30031,7 @@
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C44" s="29" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="D44" s="90">
         <v>0.65</v>
@@ -30046,7 +30054,7 @@
         <v>82</v>
       </c>
       <c r="C45" s="29" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="D45" s="90">
         <v>0.3</v>
@@ -30066,7 +30074,7 @@
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C46" s="29" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="D46" s="90">
         <v>0.49</v>
@@ -30086,7 +30094,7 @@
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C47" s="29" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="D47" s="90">
         <v>0.52</v>
@@ -30112,7 +30120,7 @@
         <v>81</v>
       </c>
       <c r="C48" s="29" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="D48" s="90">
         <v>0.88</v>
@@ -30132,7 +30140,7 @@
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C49" s="29" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="D49" s="90">
         <v>0.93</v>
@@ -30158,7 +30166,7 @@
         <v>81</v>
       </c>
       <c r="C50" s="29" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="D50" s="90">
         <v>1</v>
@@ -30178,7 +30186,7 @@
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C51" s="29" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="D51" s="90">
         <v>0.86</v>
@@ -30204,7 +30212,7 @@
         <v>72</v>
       </c>
       <c r="C52" s="29" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="D52" s="90">
         <v>0.57999999999999996</v>
@@ -30224,7 +30232,7 @@
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C53" s="29" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="D53" s="90">
         <v>0.51</v>
@@ -30244,7 +30252,7 @@
     </row>
     <row r="55" spans="1:8" s="92" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="95" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B55" s="96"/>
       <c r="C55" s="96"/>
@@ -30254,10 +30262,10 @@
         <v>156</v>
       </c>
       <c r="B56" s="57" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C56" s="82" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="D56" s="57" t="s">
         <v>67</v>
@@ -30283,7 +30291,7 @@
         <v>81</v>
       </c>
       <c r="C57" s="29" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="D57" s="90">
         <f t="shared" ref="D57:H66" si="0">D2*0.9</f>
@@ -30308,7 +30316,7 @@
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C58" s="29" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="D58" s="90">
         <f t="shared" si="0"/>
@@ -30333,7 +30341,7 @@
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C59" s="29" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="D59" s="90">
         <f t="shared" si="0"/>
@@ -30361,10 +30369,10 @@
         <v>191</v>
       </c>
       <c r="B60" s="29" t="s">
-        <v>205</v>
+        <v>342</v>
       </c>
       <c r="C60" s="29" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="D60" s="90">
         <f t="shared" si="0"/>
@@ -30389,7 +30397,7 @@
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C61" s="29" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="D61" s="90">
         <f t="shared" si="0"/>
@@ -30414,10 +30422,10 @@
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B62" s="29" t="s">
-        <v>204</v>
+        <v>343</v>
       </c>
       <c r="C62" s="29" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="D62" s="90">
         <f t="shared" si="0"/>
@@ -30442,7 +30450,7 @@
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C63" s="29" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="D63" s="90">
         <f t="shared" si="0"/>
@@ -30470,10 +30478,10 @@
         <v>184</v>
       </c>
       <c r="B64" s="29" t="s">
-        <v>205</v>
+        <v>342</v>
       </c>
       <c r="C64" s="29" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="D64" s="90">
         <f t="shared" si="0"/>
@@ -30498,7 +30506,7 @@
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C65" s="29" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="D65" s="90">
         <f t="shared" si="0"/>
@@ -30523,10 +30531,10 @@
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B66" s="29" t="s">
-        <v>204</v>
+        <v>343</v>
       </c>
       <c r="C66" s="29" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="D66" s="90">
         <f t="shared" si="0"/>
@@ -30551,7 +30559,7 @@
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C67" s="29" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="D67" s="90">
         <f t="shared" ref="D67:H76" si="1">D12*0.9</f>
@@ -30579,10 +30587,10 @@
         <v>192</v>
       </c>
       <c r="B68" s="29" t="s">
-        <v>205</v>
+        <v>342</v>
       </c>
       <c r="C68" s="29" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="D68" s="90">
         <f t="shared" si="1"/>
@@ -30607,7 +30615,7 @@
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C69" s="29" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="D69" s="90">
         <f t="shared" si="1"/>
@@ -30632,10 +30640,10 @@
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B70" s="29" t="s">
-        <v>204</v>
+        <v>343</v>
       </c>
       <c r="C70" s="29" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="D70" s="90">
         <f t="shared" si="1"/>
@@ -30660,7 +30668,7 @@
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C71" s="29" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="D71" s="90">
         <f t="shared" si="1"/>
@@ -30688,10 +30696,10 @@
         <v>169</v>
       </c>
       <c r="B72" s="29" t="s">
-        <v>205</v>
+        <v>342</v>
       </c>
       <c r="C72" s="29" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="D72" s="90">
         <f t="shared" si="1"/>
@@ -30716,7 +30724,7 @@
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C73" s="29" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="D73" s="90">
         <f t="shared" si="1"/>
@@ -30741,10 +30749,10 @@
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B74" s="29" t="s">
-        <v>204</v>
+        <v>343</v>
       </c>
       <c r="C74" s="29" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="D74" s="90">
         <f t="shared" si="1"/>
@@ -30769,7 +30777,7 @@
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C75" s="29" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="D75" s="90">
         <f t="shared" si="1"/>
@@ -30800,7 +30808,7 @@
         <v>74</v>
       </c>
       <c r="C76" s="29" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="D76" s="90">
         <f t="shared" si="1"/>
@@ -30825,7 +30833,7 @@
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C77" s="29" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="D77" s="90">
         <f t="shared" ref="D77:H86" si="2">D22*0.9</f>
@@ -30856,7 +30864,7 @@
         <v>74</v>
       </c>
       <c r="C78" s="29" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="D78" s="90">
         <f t="shared" si="2"/>
@@ -30881,7 +30889,7 @@
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C79" s="29" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="D79" s="90">
         <f t="shared" si="2"/>
@@ -30912,7 +30920,7 @@
         <v>74</v>
       </c>
       <c r="C80" s="29" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="D80" s="90">
         <f t="shared" si="2"/>
@@ -30937,7 +30945,7 @@
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C81" s="29" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="D81" s="90">
         <f t="shared" si="2"/>
@@ -30968,7 +30976,7 @@
         <v>81</v>
       </c>
       <c r="C82" s="29" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="D82" s="90">
         <f t="shared" si="2"/>
@@ -30993,7 +31001,7 @@
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C83" s="29" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="D83" s="90">
         <f t="shared" si="2"/>
@@ -31018,7 +31026,7 @@
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C84" s="29" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="D84" s="90">
         <f t="shared" si="2"/>
@@ -31049,7 +31057,7 @@
         <v>81</v>
       </c>
       <c r="C85" s="29" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="D85" s="90">
         <f t="shared" si="2"/>
@@ -31074,7 +31082,7 @@
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C86" s="29" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="D86" s="90">
         <f t="shared" si="2"/>
@@ -31099,7 +31107,7 @@
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C87" s="29" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="D87" s="90">
         <f t="shared" ref="D87:H96" si="3">D32*0.9</f>
@@ -31130,7 +31138,7 @@
         <v>81</v>
       </c>
       <c r="C88" s="29" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="D88" s="90">
         <f t="shared" si="3"/>
@@ -31155,7 +31163,7 @@
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C89" s="29" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="D89" s="90">
         <f t="shared" si="3"/>
@@ -31180,7 +31188,7 @@
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C90" s="29" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="D90" s="90">
         <f t="shared" si="3"/>
@@ -31211,7 +31219,7 @@
         <v>81</v>
       </c>
       <c r="C91" s="29" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="D91" s="90">
         <f t="shared" si="3"/>
@@ -31236,7 +31244,7 @@
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C92" s="29" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="D92" s="90">
         <f t="shared" si="3"/>
@@ -31261,7 +31269,7 @@
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C93" s="29" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="D93" s="90">
         <f t="shared" si="3"/>
@@ -31292,7 +31300,7 @@
         <v>81</v>
       </c>
       <c r="C94" s="29" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="D94" s="90">
         <f t="shared" si="3"/>
@@ -31317,7 +31325,7 @@
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C95" s="29" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="D95" s="90">
         <f t="shared" si="3"/>
@@ -31342,7 +31350,7 @@
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C96" s="29" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="D96" s="90">
         <f t="shared" si="3"/>
@@ -31373,7 +31381,7 @@
         <v>81</v>
       </c>
       <c r="C97" s="29" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="D97" s="90">
         <f t="shared" ref="D97:H106" si="4">D42*0.9</f>
@@ -31398,7 +31406,7 @@
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C98" s="29" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="D98" s="90">
         <f t="shared" si="4"/>
@@ -31423,7 +31431,7 @@
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C99" s="29" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="D99" s="90">
         <f t="shared" si="4"/>
@@ -31451,7 +31459,7 @@
         <v>82</v>
       </c>
       <c r="C100" s="29" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="D100" s="90">
         <f t="shared" si="4"/>
@@ -31476,7 +31484,7 @@
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C101" s="29" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="D101" s="90">
         <f t="shared" si="4"/>
@@ -31501,7 +31509,7 @@
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C102" s="29" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="D102" s="90">
         <f t="shared" si="4"/>
@@ -31532,7 +31540,7 @@
         <v>81</v>
       </c>
       <c r="C103" s="29" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="D103" s="90">
         <f t="shared" si="4"/>
@@ -31557,7 +31565,7 @@
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C104" s="29" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="D104" s="90">
         <f t="shared" si="4"/>
@@ -31588,7 +31596,7 @@
         <v>81</v>
       </c>
       <c r="C105" s="29" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="D105" s="90">
         <f t="shared" si="4"/>
@@ -31613,7 +31621,7 @@
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C106" s="29" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="D106" s="90">
         <f t="shared" si="4"/>
@@ -31644,7 +31652,7 @@
         <v>72</v>
       </c>
       <c r="C107" s="29" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="D107" s="90">
         <f t="shared" ref="D107:H116" si="5">D52*0.9</f>
@@ -31669,7 +31677,7 @@
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C108" s="29" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="D108" s="90">
         <f t="shared" si="5"/>
@@ -31694,7 +31702,7 @@
     </row>
     <row r="110" spans="1:8" s="92" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110" s="95" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B110" s="96"/>
       <c r="C110" s="96"/>
@@ -31704,10 +31712,10 @@
         <v>156</v>
       </c>
       <c r="B111" s="57" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C111" s="82" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="D111" s="57" t="s">
         <v>67</v>
@@ -31733,7 +31741,7 @@
         <v>81</v>
       </c>
       <c r="C112" s="29" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="D112" s="90">
         <f t="shared" ref="D112:H121" si="6">D2*1.05</f>
@@ -31758,7 +31766,7 @@
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C113" s="29" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="D113" s="90">
         <f t="shared" si="6"/>
@@ -31783,7 +31791,7 @@
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C114" s="29" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="D114" s="90">
         <f t="shared" si="6"/>
@@ -31811,10 +31819,10 @@
         <v>191</v>
       </c>
       <c r="B115" s="29" t="s">
-        <v>205</v>
+        <v>342</v>
       </c>
       <c r="C115" s="29" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="D115" s="90">
         <f t="shared" si="6"/>
@@ -31839,7 +31847,7 @@
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C116" s="29" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="D116" s="90">
         <f t="shared" si="6"/>
@@ -31864,10 +31872,10 @@
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B117" s="29" t="s">
-        <v>204</v>
+        <v>343</v>
       </c>
       <c r="C117" s="29" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="D117" s="90">
         <f t="shared" si="6"/>
@@ -31892,7 +31900,7 @@
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C118" s="29" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="D118" s="90">
         <f t="shared" si="6"/>
@@ -31920,10 +31928,10 @@
         <v>184</v>
       </c>
       <c r="B119" s="29" t="s">
-        <v>205</v>
+        <v>342</v>
       </c>
       <c r="C119" s="29" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="D119" s="90">
         <f t="shared" si="6"/>
@@ -31948,7 +31956,7 @@
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C120" s="29" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="D120" s="90">
         <f t="shared" si="6"/>
@@ -31973,10 +31981,10 @@
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B121" s="29" t="s">
-        <v>204</v>
+        <v>343</v>
       </c>
       <c r="C121" s="29" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="D121" s="90">
         <f t="shared" si="6"/>
@@ -32001,7 +32009,7 @@
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C122" s="29" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="D122" s="90">
         <f t="shared" ref="D122:H131" si="7">D12*1.05</f>
@@ -32029,10 +32037,10 @@
         <v>192</v>
       </c>
       <c r="B123" s="29" t="s">
-        <v>205</v>
+        <v>342</v>
       </c>
       <c r="C123" s="29" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="D123" s="90">
         <f t="shared" si="7"/>
@@ -32057,7 +32065,7 @@
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C124" s="29" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="D124" s="90">
         <f t="shared" si="7"/>
@@ -32082,10 +32090,10 @@
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B125" s="29" t="s">
-        <v>204</v>
+        <v>343</v>
       </c>
       <c r="C125" s="29" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="D125" s="90">
         <f t="shared" si="7"/>
@@ -32110,7 +32118,7 @@
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C126" s="29" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="D126" s="90">
         <f t="shared" si="7"/>
@@ -32138,10 +32146,10 @@
         <v>169</v>
       </c>
       <c r="B127" s="29" t="s">
-        <v>205</v>
+        <v>342</v>
       </c>
       <c r="C127" s="29" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="D127" s="90">
         <f t="shared" si="7"/>
@@ -32166,7 +32174,7 @@
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C128" s="29" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="D128" s="90">
         <f t="shared" si="7"/>
@@ -32191,10 +32199,10 @@
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B129" s="29" t="s">
-        <v>204</v>
+        <v>343</v>
       </c>
       <c r="C129" s="29" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="D129" s="90">
         <f t="shared" si="7"/>
@@ -32219,7 +32227,7 @@
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C130" s="29" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="D130" s="90">
         <f t="shared" si="7"/>
@@ -32250,7 +32258,7 @@
         <v>74</v>
       </c>
       <c r="C131" s="29" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="D131" s="90">
         <f t="shared" si="7"/>
@@ -32275,7 +32283,7 @@
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C132" s="29" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="D132" s="90">
         <f t="shared" ref="D132:H141" si="8">D22*1.05</f>
@@ -32306,7 +32314,7 @@
         <v>74</v>
       </c>
       <c r="C133" s="29" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="D133" s="90">
         <f t="shared" si="8"/>
@@ -32331,7 +32339,7 @@
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C134" s="29" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="D134" s="90">
         <f t="shared" si="8"/>
@@ -32362,7 +32370,7 @@
         <v>74</v>
       </c>
       <c r="C135" s="29" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="D135" s="90">
         <f t="shared" si="8"/>
@@ -32387,7 +32395,7 @@
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C136" s="29" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="D136" s="90">
         <f t="shared" si="8"/>
@@ -32418,7 +32426,7 @@
         <v>81</v>
       </c>
       <c r="C137" s="29" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="D137" s="90">
         <f t="shared" si="8"/>
@@ -32443,7 +32451,7 @@
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C138" s="29" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="D138" s="90">
         <f t="shared" si="8"/>
@@ -32468,7 +32476,7 @@
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C139" s="29" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="D139" s="90">
         <f t="shared" si="8"/>
@@ -32499,7 +32507,7 @@
         <v>81</v>
       </c>
       <c r="C140" s="29" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="D140" s="90">
         <f t="shared" si="8"/>
@@ -32524,7 +32532,7 @@
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C141" s="29" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="D141" s="90">
         <f t="shared" si="8"/>
@@ -32549,7 +32557,7 @@
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C142" s="29" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="D142" s="90">
         <f t="shared" ref="D142:H151" si="9">D32*1.05</f>
@@ -32580,7 +32588,7 @@
         <v>81</v>
       </c>
       <c r="C143" s="29" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="D143" s="90">
         <f t="shared" si="9"/>
@@ -32605,7 +32613,7 @@
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C144" s="29" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="D144" s="90">
         <f t="shared" si="9"/>
@@ -32630,7 +32638,7 @@
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C145" s="29" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="D145" s="90">
         <f t="shared" si="9"/>
@@ -32661,7 +32669,7 @@
         <v>81</v>
       </c>
       <c r="C146" s="29" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="D146" s="90">
         <f t="shared" si="9"/>
@@ -32686,7 +32694,7 @@
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C147" s="29" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="D147" s="90">
         <f t="shared" si="9"/>
@@ -32711,7 +32719,7 @@
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C148" s="29" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="D148" s="90">
         <f t="shared" si="9"/>
@@ -32742,7 +32750,7 @@
         <v>81</v>
       </c>
       <c r="C149" s="29" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="D149" s="90">
         <f t="shared" si="9"/>
@@ -32767,7 +32775,7 @@
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C150" s="29" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="D150" s="90">
         <f t="shared" si="9"/>
@@ -32792,7 +32800,7 @@
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C151" s="29" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="D151" s="90">
         <f t="shared" si="9"/>
@@ -32823,7 +32831,7 @@
         <v>81</v>
       </c>
       <c r="C152" s="29" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="D152" s="90">
         <f t="shared" ref="D152:H161" si="10">D42*1.05</f>
@@ -32848,7 +32856,7 @@
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C153" s="29" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="D153" s="90">
         <f t="shared" si="10"/>
@@ -32873,7 +32881,7 @@
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C154" s="29" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="D154" s="90">
         <f t="shared" si="10"/>
@@ -32901,7 +32909,7 @@
         <v>82</v>
       </c>
       <c r="C155" s="29" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="D155" s="90">
         <f t="shared" si="10"/>
@@ -32926,7 +32934,7 @@
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C156" s="29" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="D156" s="90">
         <f t="shared" si="10"/>
@@ -32951,7 +32959,7 @@
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C157" s="29" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="D157" s="90">
         <f t="shared" si="10"/>
@@ -32982,7 +32990,7 @@
         <v>81</v>
       </c>
       <c r="C158" s="29" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="D158" s="90">
         <f t="shared" si="10"/>
@@ -33007,7 +33015,7 @@
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C159" s="29" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="D159" s="90">
         <f t="shared" si="10"/>
@@ -33038,7 +33046,7 @@
         <v>81</v>
       </c>
       <c r="C160" s="29" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="D160" s="90">
         <f t="shared" si="10"/>
@@ -33063,7 +33071,7 @@
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C161" s="29" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="D161" s="90">
         <f t="shared" si="10"/>
@@ -33094,7 +33102,7 @@
         <v>72</v>
       </c>
       <c r="C162" s="29" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="D162" s="90">
         <f t="shared" ref="D162:H171" si="11">D52*1.05</f>
@@ -33119,7 +33127,7 @@
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C163" s="29" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="D163" s="90">
         <f t="shared" si="11"/>
@@ -33175,7 +33183,7 @@
         <v>156</v>
       </c>
       <c r="B1" s="76" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C1" s="76"/>
       <c r="D1" s="57" t="s">
@@ -33200,7 +33208,7 @@
         <v>94</v>
       </c>
       <c r="C2" s="83" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="D2" s="90">
         <v>1</v>
@@ -33218,7 +33226,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C3" s="67" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="D3" s="90">
         <v>0.2</v>
@@ -33242,7 +33250,7 @@
         <v>94</v>
       </c>
       <c r="C4" s="83" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="D4" s="90">
         <v>1</v>
@@ -33260,7 +33268,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C5" s="67" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="D5" s="90">
         <v>0.59</v>
@@ -33284,7 +33292,7 @@
         <v>94</v>
       </c>
       <c r="C6" s="83" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="D6" s="90">
         <v>1</v>
@@ -33302,7 +33310,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C7" s="67" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="D7" s="90">
         <v>0.6</v>
@@ -33320,7 +33328,7 @@
     </row>
     <row r="9" spans="1:8" s="91" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="91" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.3">
@@ -33328,7 +33336,7 @@
         <v>156</v>
       </c>
       <c r="B10" s="76" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C10" s="76"/>
       <c r="D10" s="57" t="s">
@@ -33352,7 +33360,7 @@
         <v>94</v>
       </c>
       <c r="C11" s="83" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="D11" s="90">
         <f t="shared" ref="D11:G16" si="0">D2*0.9</f>
@@ -33373,7 +33381,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C12" s="67" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="D12" s="90">
         <f t="shared" si="0"/>
@@ -33400,7 +33408,7 @@
         <v>94</v>
       </c>
       <c r="C13" s="83" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="D13" s="90">
         <f t="shared" si="0"/>
@@ -33421,7 +33429,7 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C14" s="67" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="D14" s="90">
         <f t="shared" si="0"/>
@@ -33448,7 +33456,7 @@
         <v>94</v>
       </c>
       <c r="C15" s="83" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="D15" s="90">
         <f t="shared" si="0"/>
@@ -33469,7 +33477,7 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C16" s="67" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="D16" s="90">
         <f t="shared" si="0"/>
@@ -33490,7 +33498,7 @@
     </row>
     <row r="18" spans="1:7" s="91" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="91" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="13" customHeight="1" x14ac:dyDescent="0.3">
@@ -33498,7 +33506,7 @@
         <v>156</v>
       </c>
       <c r="B19" s="76" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C19" s="76"/>
       <c r="D19" s="57" t="s">
@@ -33522,7 +33530,7 @@
         <v>94</v>
       </c>
       <c r="C20" s="83" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="D20" s="90">
         <f t="shared" ref="D20:G25" si="1">D2*1.05</f>
@@ -33543,7 +33551,7 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C21" s="67" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="D21" s="90">
         <f t="shared" si="1"/>
@@ -33570,7 +33578,7 @@
         <v>94</v>
       </c>
       <c r="C22" s="83" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="D22" s="90">
         <f t="shared" si="1"/>
@@ -33591,7 +33599,7 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C23" s="67" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="D23" s="90">
         <f t="shared" si="1"/>
@@ -33618,7 +33626,7 @@
         <v>94</v>
       </c>
       <c r="C24" s="83" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="D24" s="90">
         <f t="shared" si="1"/>
@@ -33639,7 +33647,7 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C25" s="67" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="D25" s="90">
         <f t="shared" si="1"/>
@@ -34532,7 +34540,7 @@
   </sheetPr>
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E2" sqref="E2:G4"/>
     </sheetView>
   </sheetViews>

--- a/inputs/es/LiST countries/VUT_databook.xlsx
+++ b/inputs/es/LiST countries/VUT_databook.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\romesh\projects\nutrition\inputs\es\LiST countries\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2DC618B0-41DB-45EE-A45E-74039CFE2935}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C8371D45-A3E9-48B9-94E1-3966CD408692}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2760" yWindow="6840" windowWidth="31920" windowHeight="14040" tabRatio="961" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2716,7 +2716,7 @@
     <numFmt numFmtId="167" formatCode="0.0"/>
     <numFmt numFmtId="168" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -2829,6 +2829,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="7">
@@ -2969,7 +2975,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="104">
+  <cellXfs count="105">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -3210,6 +3216,9 @@
     <xf numFmtId="166" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3645,7 +3654,7 @@
         <v>23</v>
       </c>
       <c r="C7" s="43">
-        <v>42040.425537109382</v>
+        <v>45424.43212890625</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -3917,7 +3926,7 @@
         <v>52</v>
       </c>
       <c r="C45" s="45">
-        <v>2.8262800000000001E-2</v>
+        <v>6.1031000000000002E-3</v>
       </c>
       <c r="D45" s="12"/>
     </row>
@@ -3926,7 +3935,7 @@
         <v>51</v>
       </c>
       <c r="C46" s="45">
-        <v>0.100506</v>
+        <v>7.2149199999999997E-2</v>
       </c>
       <c r="D46" s="12"/>
     </row>
@@ -3935,7 +3944,7 @@
         <v>59</v>
       </c>
       <c r="C47" s="45">
-        <v>0.17414250000000001</v>
+        <v>8.8596099999999997E-2</v>
       </c>
       <c r="D47" s="12"/>
       <c r="E47" s="13"/>
@@ -3945,7 +3954,7 @@
         <v>58</v>
       </c>
       <c r="C48" s="46">
-        <v>0.69708870000000001</v>
+        <v>0.8331516000000001</v>
       </c>
       <c r="D48" s="12"/>
       <c r="E48" s="12"/>
@@ -4049,7 +4058,7 @@
       <c r="A63" s="4"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="WbT3D3BE993YfwMenFk2ejFb5Wbzfh5VESF5WBWA82TrHHWeFIVOwqYZmj+Z/yz7PKsEynPMHL1kQL5JmxKnOQ==" saltValue="bog2bxX1v4po0G3gOQeZSw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="d7ZeiCDPRffY9H2d2gCyR/IUHKWvfOqjifjJVjraHbfxbRN8RcXprYYTWmwd9gOq8OnSou1gB/nuIki/zZckvw==" saltValue="BcklUBZBN9a5+TWC21Vfog==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
@@ -4063,8 +4072,8 @@
   </sheetPr>
   <dimension ref="A1:G39"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4109,7 +4118,7 @@
         <v>165</v>
       </c>
       <c r="B2" s="45">
-        <v>0.40153715350000002</v>
+        <v>0</v>
       </c>
       <c r="C2" s="98">
         <v>0.95</v>
@@ -4293,7 +4302,7 @@
         <v>174</v>
       </c>
       <c r="B10" s="45">
-        <v>0.12442712240000001</v>
+        <v>0</v>
       </c>
       <c r="C10" s="98">
         <v>0.95</v>
@@ -4316,7 +4325,7 @@
         <v>175</v>
       </c>
       <c r="B11" s="98">
-        <v>0.12442712240000001</v>
+        <v>0</v>
       </c>
       <c r="C11" s="98">
         <v>0.95</v>
@@ -4339,7 +4348,7 @@
         <v>176</v>
       </c>
       <c r="B12" s="98">
-        <v>0.12442712240000001</v>
+        <v>0</v>
       </c>
       <c r="C12" s="98">
         <v>0.95</v>
@@ -4362,7 +4371,7 @@
         <v>177</v>
       </c>
       <c r="B13" s="98">
-        <v>0.12442712240000001</v>
+        <v>0</v>
       </c>
       <c r="C13" s="98">
         <v>0.95</v>
@@ -4385,7 +4394,7 @@
         <v>178</v>
       </c>
       <c r="B14" s="45">
-        <v>0.12442712240000001</v>
+        <v>0</v>
       </c>
       <c r="C14" s="98">
         <v>0.95</v>
@@ -4408,7 +4417,7 @@
         <v>179</v>
       </c>
       <c r="B15" s="98">
-        <v>0.12442712240000001</v>
+        <v>0</v>
       </c>
       <c r="C15" s="98">
         <v>0.95</v>
@@ -4454,7 +4463,7 @@
         <v>181</v>
       </c>
       <c r="B17" s="98">
-        <v>0</v>
+        <v>0.78</v>
       </c>
       <c r="C17" s="98">
         <v>0.95</v>
@@ -4546,7 +4555,7 @@
         <v>182</v>
       </c>
       <c r="B21" s="45">
-        <v>0.88500000000000001</v>
+        <v>0.627</v>
       </c>
       <c r="C21" s="98">
         <v>0.95</v>
@@ -4592,7 +4601,7 @@
         <v>185</v>
       </c>
       <c r="B23" s="98">
-        <v>0</v>
+        <v>3.6439442599999999E-3</v>
       </c>
       <c r="C23" s="98">
         <v>0.95</v>
@@ -4615,7 +4624,7 @@
         <v>188</v>
       </c>
       <c r="B24" s="45">
-        <v>0.22370941499999999</v>
+        <v>0</v>
       </c>
       <c r="C24" s="98">
         <v>0.95</v>
@@ -4684,7 +4693,7 @@
         <v>191</v>
       </c>
       <c r="B27" s="45">
-        <v>9.704538339999999E-2</v>
+        <v>0</v>
       </c>
       <c r="C27" s="98">
         <v>0.95</v>
@@ -4707,7 +4716,7 @@
         <v>192</v>
       </c>
       <c r="B28" s="45">
-        <v>0</v>
+        <v>0.47599999999999998</v>
       </c>
       <c r="C28" s="98">
         <v>0.95</v>
@@ -4730,7 +4739,7 @@
         <v>193</v>
       </c>
       <c r="B29" s="45">
-        <v>0.34067057596589989</v>
+        <v>0</v>
       </c>
       <c r="C29" s="98">
         <v>0.95</v>
@@ -4799,7 +4808,7 @@
         <v>196</v>
       </c>
       <c r="B32" s="45">
-        <v>3.6439442599999999E-3</v>
+        <v>0.4011613</v>
       </c>
       <c r="C32" s="98">
         <v>0.95</v>
@@ -4845,7 +4854,7 @@
         <v>198</v>
       </c>
       <c r="B34" s="45">
-        <v>0</v>
+        <v>0.34067057596589989</v>
       </c>
       <c r="C34" s="98">
         <v>0.95</v>
@@ -4891,7 +4900,7 @@
         <v>200</v>
       </c>
       <c r="B36" s="45">
-        <v>0.627</v>
+        <v>0</v>
       </c>
       <c r="C36" s="98">
         <v>0.95</v>
@@ -4914,7 +4923,7 @@
         <v>201</v>
       </c>
       <c r="B37" s="45">
-        <v>0.69800110000000004</v>
+        <v>0</v>
       </c>
       <c r="C37" s="98">
         <v>0.95</v>
@@ -4937,7 +4946,7 @@
         <v>202</v>
       </c>
       <c r="B38" s="45">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="C38" s="98">
         <v>0.95</v>
@@ -4960,7 +4969,7 @@
         <v>203</v>
       </c>
       <c r="B39" s="45">
-        <v>0.476207826832028</v>
+        <v>0</v>
       </c>
       <c r="C39" s="98">
         <v>0.95</v>
@@ -4979,7 +4988,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="zIIpNLz08SVypiiTK+GEVRNCQ4MCcJJZSHbyX7fGbvMcAFqoG+EsW0a/LlxNWxAJTGhQYg54OYodxpm7wKYhaw==" saltValue="h8uwd88rGS1BpFs91mxRow==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="3E+ONeD8UqIlAaCnwIWnRVo66VPeLE9zWmSx9irc5Lh+bZyGPNeWwcOwAw/y3i5svO65Q4WbQNyCwW2mKIVnWw==" saltValue="oUURT0HCYbp9ZBz7atCZlw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
@@ -5129,7 +5138,7 @@
       <c r="C20" s="58"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="whZjeJUrAiZanMTXCPEgyRCH/spB/J9rRMzxf0BQNvFOVJ/5BjeQwtMXkWulNcJ7pPqHnOnB54vxiOkKYXnROQ==" saltValue="XJ/rlheFDpH8dOQlKu8Baw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="hzpsuEuSwOreUL4Cl2DTdo2qZmchzosRh60UlAhqZ1XWrYEnNSTqgTDmBKng4/QDAsZ9s/Ng22I9W92QlMjXGw==" saltValue="ug76DQ24ZvqlW5KailQCVA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <legacyDrawing r:id="rId1"/>
@@ -5230,7 +5239,7 @@
       <c r="A19" s="33"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="1WEPtloeRUlPaCO2FdQyqLicRuHnTIWbbrocKHbozE8Giuef/qgWMr//UGDaCEDt6DAMYvg+4XUUju/a+LEolA==" saltValue="wC6hdqfTVVCGen1xLHBVqg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="7OgdaYABIgY1xcvZrmtwutJSd2sErDhbkT935PwiwTOEi2edjQLJO+Xm7eJINTquTvHGGirIXGdAEu6QoEonpQ==" saltValue="wXqWCRrUFZ+Rx0ud7b7phg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -5345,7 +5354,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="N1wpJjx5+6TG1nivYRuc0iuFqSJ+gakCP7s0bjBREpa5xbxjwlU4ptJKzJcLZFscLyBt4aJgpOsNxi2Fr1xZIQ==" saltValue="ca9qdruB+2TUOcnjuwSknA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="OYjwEoBz3ygWF3wXp9JXLYu6TzI5NSiJ/n/xyXUs2GcCxc6WxGNX4bvOpKV/u49iex4BHr24tiDBlf+NNnIX5w==" saltValue="kutjcMqpcf/yvsPCf5H72A==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -7106,7 +7115,7 @@
       <c r="B40" s="9"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="F5DZxJFHlBSabY5yJhVQrV414ePj5AEax7J6cITu7j+hAWQVOdX9DSv3IIjiqdBSxt1hDFFHBLuk7A4apUixPQ==" saltValue="3sN+yH3LnffqxY3J5bz2yw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="2KePmLB+Fli8hFjc5A52yHSDmRHqVfqcyt/HlY75O++p+93sxS4Iy/WKhaPIDzSd2jQUBYzT81489GVXYSqHKA==" saltValue="JNrmkC34DpAtgDgr0Uwygw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -7141,7 +7150,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="tawM4QWsoG++QgTMIerFKrh1sWQ5TPnZUUPbJ6uzBnAPyK4MCoeEbwrVdbQpouMP/f8BML/x0fwHApTIdlwAFQ==" saltValue="IcU2Vmil31M+ZgDiFfOUDg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="IyyWDya93xlhzxL3ARerZSzbpJZyXKzZlcT8HTr34m0rriIwzcpY4cYxSA1N3u8A9TB8Q45j7IDUIMGsfUXxWA==" saltValue="gq5hnUy5wUZhT7maiq3iOQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -7347,7 +7356,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="KP9DbI5HAF1T9f+kwfar2Tqzkj98XOQdiA4FTnEA3ZAS4VenMWr0RYTXsKMfSkQSVwL9YX4NPxTuXWM96K0vGw==" saltValue="ZtwckaumQd/l5RasL/66JQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="qDLDehddLlMSABC18FjOmGmBfHoVXBdOjx2pgkCdjKZVS9hW8YhrU+pfkc9DSd3/Cus6T+CTeakt2NrOkAa7xA==" saltValue="0hEGO7L8vlNFNqcpO8oiow==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
@@ -9162,7 +9171,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="kwdJ7ULxnwwTGyQfMtOFb5dNvjegBlTRqkUiDTb3wpEgbmHi06aRR/yoXtA3Vqre247J8rqKa9ainEv5qvfEqw==" saltValue="qGLdsRb+NCFwnhYLRs+spQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="hbR9Ds5qPgNtGhqXou42mJ+Z+LDlU5N3KIfOBF5YYPW5VBmkV6UxsWxPfFb9ZRyRZN55E6PEXFSzAQKntwc/7w==" saltValue="gMWrg2Ow5UrWIV3TD+Nfpw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -9930,7 +9939,7 @@
       <c r="K39" s="87"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="bafPTp85NaeW/fDaIke+flgJ822+5gb5oA7YquBLcUQk50G0xk6FklKRCi9aOcrFtMxDLayQ2aH/dIos13w1lg==" saltValue="YpPLeDUL8wkcJ+PLRPY22g==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="bi2D4zS0AM98cW9tfK2mXeVrNQX1ssDFytejUlDPMAwfGH4LJ8SOMn6PKHAK1iux0IRIybAdmDudLvnhxT1daw==" saltValue="d83K7Am4KWIRpD3v8U5MZQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -10305,7 +10314,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="1SOksETLzKEM6wUVpVSe/G2SUzDXyGHE8essY+BKM4tBUC+FvvYrsHMKQHRHA2mllsKJoVFl6qPF9rX4+i/u8w==" saltValue="BnEWJ8otpUagYf+la/F7EA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="VZU7xXRcX41VNPGGArOeu6IOnZKJwp2f/gwe5in50Wgx3wGrIPApWFJZX/Lg6vrlbZGGNPiR+AL6ARIhbnBW4g==" saltValue="MLKR3lqS6/WZ+qq4q74Dwg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -11121,7 +11130,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="j1Ela3hayu6EIus3l9DzSFYRHM5vkpilsPGDsgdVyPkqOva/VCji2pf/0Rre/l7CTWYAg04EkyviSo7Rdr039Q==" saltValue="LxMoJ2D2mcELuhIjecEdzg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="mPh3zp9uLfcpGqs7I2RJt0S9gqhs+JYerZhy7hEczQB9rYw1c58frs1fdP5AjB8KNKKnfAXU9qdTMDk3F9YuUw==" saltValue="p2yGPk8xbCFl18HzMnLCIA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <conditionalFormatting sqref="B18:I40 B17:C17 E17:I17 B2:I16">
     <cfRule type="expression" dxfId="0" priority="9">
       <formula>$A2=""</formula>
@@ -11183,7 +11192,7 @@
       <c r="A2" s="4" t="s">
         <v>236</v>
       </c>
-      <c r="B2" s="102" t="s">
+      <c r="B2" s="103" t="s">
         <v>104</v>
       </c>
       <c r="C2" s="8" t="s">
@@ -11206,7 +11215,7 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B3" s="103"/>
+      <c r="B3" s="104"/>
       <c r="C3" s="8" t="s">
         <v>149</v>
       </c>
@@ -11228,7 +11237,7 @@
       <c r="J3" s="64"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B4" s="103"/>
+      <c r="B4" s="104"/>
       <c r="C4" s="8" t="s">
         <v>155</v>
       </c>
@@ -11250,7 +11259,7 @@
       <c r="J4" s="64"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B5" s="102" t="s">
+      <c r="B5" s="103" t="s">
         <v>78</v>
       </c>
       <c r="C5" s="8" t="s">
@@ -11274,7 +11283,7 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B6" s="103"/>
+      <c r="B6" s="104"/>
       <c r="C6" s="8" t="s">
         <v>149</v>
       </c>
@@ -11295,7 +11304,7 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B7" s="103"/>
+      <c r="B7" s="104"/>
       <c r="C7" s="8" t="s">
         <v>155</v>
       </c>
@@ -11316,7 +11325,7 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B8" s="102" t="s">
+      <c r="B8" s="103" t="s">
         <v>74</v>
       </c>
       <c r="C8" s="8" t="s">
@@ -11339,7 +11348,7 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B9" s="103"/>
+      <c r="B9" s="104"/>
       <c r="C9" s="8" t="s">
         <v>149</v>
       </c>
@@ -11360,7 +11369,7 @@
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B10" s="103"/>
+      <c r="B10" s="104"/>
       <c r="C10" s="8" t="s">
         <v>155</v>
       </c>
@@ -11381,7 +11390,7 @@
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B11" s="102" t="s">
+      <c r="B11" s="103" t="s">
         <v>77</v>
       </c>
       <c r="C11" s="8" t="s">
@@ -11404,7 +11413,7 @@
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B12" s="103"/>
+      <c r="B12" s="104"/>
       <c r="C12" s="8" t="s">
         <v>149</v>
       </c>
@@ -11425,7 +11434,7 @@
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B13" s="103"/>
+      <c r="B13" s="104"/>
       <c r="C13" s="8" t="s">
         <v>155</v>
       </c>
@@ -11446,7 +11455,7 @@
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B14" s="102" t="s">
+      <c r="B14" s="103" t="s">
         <v>75</v>
       </c>
       <c r="C14" s="8" t="s">
@@ -11469,7 +11478,7 @@
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B15" s="103"/>
+      <c r="B15" s="104"/>
       <c r="C15" s="8" t="s">
         <v>149</v>
       </c>
@@ -11490,7 +11499,7 @@
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B16" s="103"/>
+      <c r="B16" s="104"/>
       <c r="C16" s="8" t="s">
         <v>155</v>
       </c>
@@ -11544,7 +11553,7 @@
       <c r="A19" s="4" t="s">
         <v>242</v>
       </c>
-      <c r="B19" s="102" t="s">
+      <c r="B19" s="103" t="s">
         <v>104</v>
       </c>
       <c r="C19" s="8" t="s">
@@ -11567,7 +11576,7 @@
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B20" s="103"/>
+      <c r="B20" s="104"/>
       <c r="C20" s="8" t="s">
         <v>149</v>
       </c>
@@ -11588,7 +11597,7 @@
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B21" s="103"/>
+      <c r="B21" s="104"/>
       <c r="C21" s="8" t="s">
         <v>155</v>
       </c>
@@ -11609,7 +11618,7 @@
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B22" s="102" t="s">
+      <c r="B22" s="103" t="s">
         <v>78</v>
       </c>
       <c r="C22" s="8" t="s">
@@ -11632,7 +11641,7 @@
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B23" s="103"/>
+      <c r="B23" s="104"/>
       <c r="C23" s="8" t="s">
         <v>149</v>
       </c>
@@ -11653,7 +11662,7 @@
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B24" s="103"/>
+      <c r="B24" s="104"/>
       <c r="C24" s="8" t="s">
         <v>155</v>
       </c>
@@ -11674,7 +11683,7 @@
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B25" s="102" t="s">
+      <c r="B25" s="103" t="s">
         <v>74</v>
       </c>
       <c r="C25" s="8" t="s">
@@ -11697,7 +11706,7 @@
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B26" s="103"/>
+      <c r="B26" s="104"/>
       <c r="C26" s="8" t="s">
         <v>149</v>
       </c>
@@ -11718,7 +11727,7 @@
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B27" s="103"/>
+      <c r="B27" s="104"/>
       <c r="C27" s="8" t="s">
         <v>155</v>
       </c>
@@ -11739,7 +11748,7 @@
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B28" s="102" t="s">
+      <c r="B28" s="103" t="s">
         <v>77</v>
       </c>
       <c r="C28" s="8" t="s">
@@ -11762,7 +11771,7 @@
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B29" s="103"/>
+      <c r="B29" s="104"/>
       <c r="C29" s="8" t="s">
         <v>149</v>
       </c>
@@ -11783,7 +11792,7 @@
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B30" s="103"/>
+      <c r="B30" s="104"/>
       <c r="C30" s="8" t="s">
         <v>155</v>
       </c>
@@ -11804,7 +11813,7 @@
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B31" s="102" t="s">
+      <c r="B31" s="103" t="s">
         <v>75</v>
       </c>
       <c r="C31" s="8" t="s">
@@ -11827,7 +11836,7 @@
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B32" s="103"/>
+      <c r="B32" s="104"/>
       <c r="C32" s="8" t="s">
         <v>149</v>
       </c>
@@ -11848,7 +11857,7 @@
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B33" s="103"/>
+      <c r="B33" s="104"/>
       <c r="C33" s="8" t="s">
         <v>155</v>
       </c>
@@ -11902,7 +11911,7 @@
       <c r="A36" s="66" t="s">
         <v>239</v>
       </c>
-      <c r="B36" s="102" t="s">
+      <c r="B36" s="103" t="s">
         <v>104</v>
       </c>
       <c r="C36" s="8" t="s">
@@ -11925,7 +11934,7 @@
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B37" s="103"/>
+      <c r="B37" s="104"/>
       <c r="C37" s="8" t="s">
         <v>149</v>
       </c>
@@ -11946,7 +11955,7 @@
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B38" s="103"/>
+      <c r="B38" s="104"/>
       <c r="C38" s="8" t="s">
         <v>155</v>
       </c>
@@ -11967,7 +11976,7 @@
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B39" s="102" t="s">
+      <c r="B39" s="103" t="s">
         <v>78</v>
       </c>
       <c r="C39" s="8" t="s">
@@ -11990,7 +11999,7 @@
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B40" s="103"/>
+      <c r="B40" s="104"/>
       <c r="C40" s="8" t="s">
         <v>149</v>
       </c>
@@ -12011,7 +12020,7 @@
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B41" s="103"/>
+      <c r="B41" s="104"/>
       <c r="C41" s="8" t="s">
         <v>155</v>
       </c>
@@ -12032,7 +12041,7 @@
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B42" s="102" t="s">
+      <c r="B42" s="103" t="s">
         <v>74</v>
       </c>
       <c r="C42" s="8" t="s">
@@ -12055,7 +12064,7 @@
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B43" s="103"/>
+      <c r="B43" s="104"/>
       <c r="C43" s="8" t="s">
         <v>149</v>
       </c>
@@ -12076,7 +12085,7 @@
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B44" s="103"/>
+      <c r="B44" s="104"/>
       <c r="C44" s="8" t="s">
         <v>155</v>
       </c>
@@ -12097,7 +12106,7 @@
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B45" s="102" t="s">
+      <c r="B45" s="103" t="s">
         <v>77</v>
       </c>
       <c r="C45" s="8" t="s">
@@ -12120,7 +12129,7 @@
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B46" s="103"/>
+      <c r="B46" s="104"/>
       <c r="C46" s="8" t="s">
         <v>149</v>
       </c>
@@ -12141,7 +12150,7 @@
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B47" s="103"/>
+      <c r="B47" s="104"/>
       <c r="C47" s="8" t="s">
         <v>155</v>
       </c>
@@ -12162,7 +12171,7 @@
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B48" s="102" t="s">
+      <c r="B48" s="103" t="s">
         <v>75</v>
       </c>
       <c r="C48" s="8" t="s">
@@ -12185,7 +12194,7 @@
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B49" s="103"/>
+      <c r="B49" s="104"/>
       <c r="C49" s="8" t="s">
         <v>149</v>
       </c>
@@ -12206,7 +12215,7 @@
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B50" s="103"/>
+      <c r="B50" s="104"/>
       <c r="C50" s="8" t="s">
         <v>155</v>
       </c>
@@ -12291,7 +12300,7 @@
       <c r="A55" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="B55" s="102" t="s">
+      <c r="B55" s="103" t="s">
         <v>104</v>
       </c>
       <c r="C55" s="8" t="s">
@@ -12319,7 +12328,7 @@
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B56" s="103"/>
+      <c r="B56" s="104"/>
       <c r="C56" s="8" t="s">
         <v>149</v>
       </c>
@@ -12345,7 +12354,7 @@
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B57" s="103"/>
+      <c r="B57" s="104"/>
       <c r="C57" s="8" t="s">
         <v>155</v>
       </c>
@@ -12371,7 +12380,7 @@
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B58" s="102" t="s">
+      <c r="B58" s="103" t="s">
         <v>78</v>
       </c>
       <c r="C58" s="8" t="s">
@@ -12399,7 +12408,7 @@
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B59" s="103"/>
+      <c r="B59" s="104"/>
       <c r="C59" s="8" t="s">
         <v>149</v>
       </c>
@@ -12425,7 +12434,7 @@
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B60" s="103"/>
+      <c r="B60" s="104"/>
       <c r="C60" s="8" t="s">
         <v>155</v>
       </c>
@@ -12451,7 +12460,7 @@
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B61" s="102" t="s">
+      <c r="B61" s="103" t="s">
         <v>74</v>
       </c>
       <c r="C61" s="8" t="s">
@@ -12479,7 +12488,7 @@
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B62" s="103"/>
+      <c r="B62" s="104"/>
       <c r="C62" s="8" t="s">
         <v>149</v>
       </c>
@@ -12505,7 +12514,7 @@
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B63" s="103"/>
+      <c r="B63" s="104"/>
       <c r="C63" s="8" t="s">
         <v>155</v>
       </c>
@@ -12531,7 +12540,7 @@
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B64" s="102" t="s">
+      <c r="B64" s="103" t="s">
         <v>77</v>
       </c>
       <c r="C64" s="8" t="s">
@@ -12559,7 +12568,7 @@
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B65" s="103"/>
+      <c r="B65" s="104"/>
       <c r="C65" s="8" t="s">
         <v>149</v>
       </c>
@@ -12585,7 +12594,7 @@
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B66" s="103"/>
+      <c r="B66" s="104"/>
       <c r="C66" s="8" t="s">
         <v>155</v>
       </c>
@@ -12611,7 +12620,7 @@
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B67" s="102" t="s">
+      <c r="B67" s="103" t="s">
         <v>75</v>
       </c>
       <c r="C67" s="8" t="s">
@@ -12639,7 +12648,7 @@
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B68" s="103"/>
+      <c r="B68" s="104"/>
       <c r="C68" s="8" t="s">
         <v>149</v>
       </c>
@@ -12665,7 +12674,7 @@
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B69" s="103"/>
+      <c r="B69" s="104"/>
       <c r="C69" s="8" t="s">
         <v>155</v>
       </c>
@@ -12729,7 +12738,7 @@
       <c r="A72" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="B72" s="102" t="s">
+      <c r="B72" s="103" t="s">
         <v>104</v>
       </c>
       <c r="C72" s="8" t="s">
@@ -12757,7 +12766,7 @@
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B73" s="103"/>
+      <c r="B73" s="104"/>
       <c r="C73" s="8" t="s">
         <v>149</v>
       </c>
@@ -12783,7 +12792,7 @@
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B74" s="103"/>
+      <c r="B74" s="104"/>
       <c r="C74" s="8" t="s">
         <v>155</v>
       </c>
@@ -12809,7 +12818,7 @@
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B75" s="102" t="s">
+      <c r="B75" s="103" t="s">
         <v>78</v>
       </c>
       <c r="C75" s="8" t="s">
@@ -12837,7 +12846,7 @@
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B76" s="103"/>
+      <c r="B76" s="104"/>
       <c r="C76" s="8" t="s">
         <v>149</v>
       </c>
@@ -12863,7 +12872,7 @@
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B77" s="103"/>
+      <c r="B77" s="104"/>
       <c r="C77" s="8" t="s">
         <v>155</v>
       </c>
@@ -12889,7 +12898,7 @@
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B78" s="102" t="s">
+      <c r="B78" s="103" t="s">
         <v>74</v>
       </c>
       <c r="C78" s="8" t="s">
@@ -12917,7 +12926,7 @@
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B79" s="103"/>
+      <c r="B79" s="104"/>
       <c r="C79" s="8" t="s">
         <v>149</v>
       </c>
@@ -12943,7 +12952,7 @@
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B80" s="103"/>
+      <c r="B80" s="104"/>
       <c r="C80" s="8" t="s">
         <v>155</v>
       </c>
@@ -12969,7 +12978,7 @@
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B81" s="102" t="s">
+      <c r="B81" s="103" t="s">
         <v>77</v>
       </c>
       <c r="C81" s="8" t="s">
@@ -12997,7 +13006,7 @@
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B82" s="103"/>
+      <c r="B82" s="104"/>
       <c r="C82" s="8" t="s">
         <v>149</v>
       </c>
@@ -13023,7 +13032,7 @@
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B83" s="103"/>
+      <c r="B83" s="104"/>
       <c r="C83" s="8" t="s">
         <v>155</v>
       </c>
@@ -13049,7 +13058,7 @@
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B84" s="102" t="s">
+      <c r="B84" s="103" t="s">
         <v>75</v>
       </c>
       <c r="C84" s="8" t="s">
@@ -13077,7 +13086,7 @@
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B85" s="103"/>
+      <c r="B85" s="104"/>
       <c r="C85" s="8" t="s">
         <v>149</v>
       </c>
@@ -13103,7 +13112,7 @@
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B86" s="103"/>
+      <c r="B86" s="104"/>
       <c r="C86" s="8" t="s">
         <v>155</v>
       </c>
@@ -13167,7 +13176,7 @@
       <c r="A89" s="66" t="s">
         <v>240</v>
       </c>
-      <c r="B89" s="102" t="s">
+      <c r="B89" s="103" t="s">
         <v>104</v>
       </c>
       <c r="C89" s="8" t="s">
@@ -13195,7 +13204,7 @@
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B90" s="103"/>
+      <c r="B90" s="104"/>
       <c r="C90" s="8" t="s">
         <v>149</v>
       </c>
@@ -13221,7 +13230,7 @@
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B91" s="103"/>
+      <c r="B91" s="104"/>
       <c r="C91" s="8" t="s">
         <v>155</v>
       </c>
@@ -13247,7 +13256,7 @@
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B92" s="102" t="s">
+      <c r="B92" s="103" t="s">
         <v>78</v>
       </c>
       <c r="C92" s="8" t="s">
@@ -13275,7 +13284,7 @@
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B93" s="103"/>
+      <c r="B93" s="104"/>
       <c r="C93" s="8" t="s">
         <v>149</v>
       </c>
@@ -13301,7 +13310,7 @@
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B94" s="103"/>
+      <c r="B94" s="104"/>
       <c r="C94" s="8" t="s">
         <v>155</v>
       </c>
@@ -13327,7 +13336,7 @@
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B95" s="102" t="s">
+      <c r="B95" s="103" t="s">
         <v>74</v>
       </c>
       <c r="C95" s="8" t="s">
@@ -13355,7 +13364,7 @@
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B96" s="103"/>
+      <c r="B96" s="104"/>
       <c r="C96" s="8" t="s">
         <v>149</v>
       </c>
@@ -13381,7 +13390,7 @@
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B97" s="103"/>
+      <c r="B97" s="104"/>
       <c r="C97" s="8" t="s">
         <v>155</v>
       </c>
@@ -13407,7 +13416,7 @@
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B98" s="102" t="s">
+      <c r="B98" s="103" t="s">
         <v>77</v>
       </c>
       <c r="C98" s="8" t="s">
@@ -13435,7 +13444,7 @@
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B99" s="103"/>
+      <c r="B99" s="104"/>
       <c r="C99" s="8" t="s">
         <v>149</v>
       </c>
@@ -13461,7 +13470,7 @@
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B100" s="103"/>
+      <c r="B100" s="104"/>
       <c r="C100" s="8" t="s">
         <v>155</v>
       </c>
@@ -13487,7 +13496,7 @@
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B101" s="102" t="s">
+      <c r="B101" s="103" t="s">
         <v>75</v>
       </c>
       <c r="C101" s="8" t="s">
@@ -13515,7 +13524,7 @@
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B102" s="103"/>
+      <c r="B102" s="104"/>
       <c r="C102" s="8" t="s">
         <v>149</v>
       </c>
@@ -13541,7 +13550,7 @@
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B103" s="103"/>
+      <c r="B103" s="104"/>
       <c r="C103" s="8" t="s">
         <v>155</v>
       </c>
@@ -13636,7 +13645,7 @@
       <c r="A108" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="B108" s="102" t="s">
+      <c r="B108" s="103" t="s">
         <v>104</v>
       </c>
       <c r="C108" s="8" t="s">
@@ -13664,7 +13673,7 @@
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B109" s="103"/>
+      <c r="B109" s="104"/>
       <c r="C109" s="8" t="s">
         <v>149</v>
       </c>
@@ -13690,7 +13699,7 @@
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B110" s="103"/>
+      <c r="B110" s="104"/>
       <c r="C110" s="8" t="s">
         <v>155</v>
       </c>
@@ -13716,7 +13725,7 @@
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B111" s="102" t="s">
+      <c r="B111" s="103" t="s">
         <v>78</v>
       </c>
       <c r="C111" s="8" t="s">
@@ -13744,7 +13753,7 @@
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B112" s="103"/>
+      <c r="B112" s="104"/>
       <c r="C112" s="8" t="s">
         <v>149</v>
       </c>
@@ -13770,7 +13779,7 @@
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B113" s="103"/>
+      <c r="B113" s="104"/>
       <c r="C113" s="8" t="s">
         <v>155</v>
       </c>
@@ -13796,7 +13805,7 @@
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B114" s="102" t="s">
+      <c r="B114" s="103" t="s">
         <v>74</v>
       </c>
       <c r="C114" s="8" t="s">
@@ -13824,7 +13833,7 @@
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B115" s="103"/>
+      <c r="B115" s="104"/>
       <c r="C115" s="8" t="s">
         <v>149</v>
       </c>
@@ -13850,7 +13859,7 @@
       </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B116" s="103"/>
+      <c r="B116" s="104"/>
       <c r="C116" s="8" t="s">
         <v>155</v>
       </c>
@@ -13876,7 +13885,7 @@
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B117" s="102" t="s">
+      <c r="B117" s="103" t="s">
         <v>77</v>
       </c>
       <c r="C117" s="8" t="s">
@@ -13904,7 +13913,7 @@
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B118" s="103"/>
+      <c r="B118" s="104"/>
       <c r="C118" s="8" t="s">
         <v>149</v>
       </c>
@@ -13930,7 +13939,7 @@
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B119" s="103"/>
+      <c r="B119" s="104"/>
       <c r="C119" s="8" t="s">
         <v>155</v>
       </c>
@@ -13956,7 +13965,7 @@
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B120" s="102" t="s">
+      <c r="B120" s="103" t="s">
         <v>75</v>
       </c>
       <c r="C120" s="8" t="s">
@@ -13984,7 +13993,7 @@
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B121" s="103"/>
+      <c r="B121" s="104"/>
       <c r="C121" s="8" t="s">
         <v>149</v>
       </c>
@@ -14010,7 +14019,7 @@
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B122" s="103"/>
+      <c r="B122" s="104"/>
       <c r="C122" s="8" t="s">
         <v>155</v>
       </c>
@@ -14074,7 +14083,7 @@
       <c r="A125" s="4" t="s">
         <v>244</v>
       </c>
-      <c r="B125" s="102" t="s">
+      <c r="B125" s="103" t="s">
         <v>104</v>
       </c>
       <c r="C125" s="8" t="s">
@@ -14102,7 +14111,7 @@
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B126" s="103"/>
+      <c r="B126" s="104"/>
       <c r="C126" s="8" t="s">
         <v>149</v>
       </c>
@@ -14128,7 +14137,7 @@
       </c>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B127" s="103"/>
+      <c r="B127" s="104"/>
       <c r="C127" s="8" t="s">
         <v>155</v>
       </c>
@@ -14154,7 +14163,7 @@
       </c>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B128" s="102" t="s">
+      <c r="B128" s="103" t="s">
         <v>78</v>
       </c>
       <c r="C128" s="8" t="s">
@@ -14182,7 +14191,7 @@
       </c>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B129" s="103"/>
+      <c r="B129" s="104"/>
       <c r="C129" s="8" t="s">
         <v>149</v>
       </c>
@@ -14208,7 +14217,7 @@
       </c>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B130" s="103"/>
+      <c r="B130" s="104"/>
       <c r="C130" s="8" t="s">
         <v>155</v>
       </c>
@@ -14234,7 +14243,7 @@
       </c>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B131" s="102" t="s">
+      <c r="B131" s="103" t="s">
         <v>74</v>
       </c>
       <c r="C131" s="8" t="s">
@@ -14262,7 +14271,7 @@
       </c>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B132" s="103"/>
+      <c r="B132" s="104"/>
       <c r="C132" s="8" t="s">
         <v>149</v>
       </c>
@@ -14288,7 +14297,7 @@
       </c>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B133" s="103"/>
+      <c r="B133" s="104"/>
       <c r="C133" s="8" t="s">
         <v>155</v>
       </c>
@@ -14314,7 +14323,7 @@
       </c>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B134" s="102" t="s">
+      <c r="B134" s="103" t="s">
         <v>77</v>
       </c>
       <c r="C134" s="8" t="s">
@@ -14342,7 +14351,7 @@
       </c>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B135" s="103"/>
+      <c r="B135" s="104"/>
       <c r="C135" s="8" t="s">
         <v>149</v>
       </c>
@@ -14368,7 +14377,7 @@
       </c>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B136" s="103"/>
+      <c r="B136" s="104"/>
       <c r="C136" s="8" t="s">
         <v>155</v>
       </c>
@@ -14394,7 +14403,7 @@
       </c>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B137" s="102" t="s">
+      <c r="B137" s="103" t="s">
         <v>75</v>
       </c>
       <c r="C137" s="8" t="s">
@@ -14422,7 +14431,7 @@
       </c>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B138" s="103"/>
+      <c r="B138" s="104"/>
       <c r="C138" s="8" t="s">
         <v>149</v>
       </c>
@@ -14448,7 +14457,7 @@
       </c>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B139" s="103"/>
+      <c r="B139" s="104"/>
       <c r="C139" s="8" t="s">
         <v>155</v>
       </c>
@@ -14512,7 +14521,7 @@
       <c r="A142" s="66" t="s">
         <v>241</v>
       </c>
-      <c r="B142" s="102" t="s">
+      <c r="B142" s="103" t="s">
         <v>104</v>
       </c>
       <c r="C142" s="8" t="s">
@@ -14540,7 +14549,7 @@
       </c>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B143" s="103"/>
+      <c r="B143" s="104"/>
       <c r="C143" s="8" t="s">
         <v>149</v>
       </c>
@@ -14566,7 +14575,7 @@
       </c>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B144" s="103"/>
+      <c r="B144" s="104"/>
       <c r="C144" s="8" t="s">
         <v>155</v>
       </c>
@@ -14592,7 +14601,7 @@
       </c>
     </row>
     <row r="145" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B145" s="102" t="s">
+      <c r="B145" s="103" t="s">
         <v>78</v>
       </c>
       <c r="C145" s="8" t="s">
@@ -14620,7 +14629,7 @@
       </c>
     </row>
     <row r="146" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B146" s="103"/>
+      <c r="B146" s="104"/>
       <c r="C146" s="8" t="s">
         <v>149</v>
       </c>
@@ -14646,7 +14655,7 @@
       </c>
     </row>
     <row r="147" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B147" s="103"/>
+      <c r="B147" s="104"/>
       <c r="C147" s="8" t="s">
         <v>155</v>
       </c>
@@ -14672,7 +14681,7 @@
       </c>
     </row>
     <row r="148" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B148" s="102" t="s">
+      <c r="B148" s="103" t="s">
         <v>74</v>
       </c>
       <c r="C148" s="8" t="s">
@@ -14700,7 +14709,7 @@
       </c>
     </row>
     <row r="149" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B149" s="103"/>
+      <c r="B149" s="104"/>
       <c r="C149" s="8" t="s">
         <v>149</v>
       </c>
@@ -14726,7 +14735,7 @@
       </c>
     </row>
     <row r="150" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B150" s="103"/>
+      <c r="B150" s="104"/>
       <c r="C150" s="8" t="s">
         <v>155</v>
       </c>
@@ -14752,7 +14761,7 @@
       </c>
     </row>
     <row r="151" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B151" s="102" t="s">
+      <c r="B151" s="103" t="s">
         <v>77</v>
       </c>
       <c r="C151" s="8" t="s">
@@ -14780,7 +14789,7 @@
       </c>
     </row>
     <row r="152" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B152" s="103"/>
+      <c r="B152" s="104"/>
       <c r="C152" s="8" t="s">
         <v>149</v>
       </c>
@@ -14806,7 +14815,7 @@
       </c>
     </row>
     <row r="153" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B153" s="103"/>
+      <c r="B153" s="104"/>
       <c r="C153" s="8" t="s">
         <v>155</v>
       </c>
@@ -14832,7 +14841,7 @@
       </c>
     </row>
     <row r="154" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B154" s="102" t="s">
+      <c r="B154" s="103" t="s">
         <v>75</v>
       </c>
       <c r="C154" s="8" t="s">
@@ -14860,7 +14869,7 @@
       </c>
     </row>
     <row r="155" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B155" s="103"/>
+      <c r="B155" s="104"/>
       <c r="C155" s="8" t="s">
         <v>149</v>
       </c>
@@ -14886,7 +14895,7 @@
       </c>
     </row>
     <row r="156" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B156" s="103"/>
+      <c r="B156" s="104"/>
       <c r="C156" s="8" t="s">
         <v>155</v>
       </c>
@@ -14940,7 +14949,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="3wtc+PDAj/P0qnnCoRMNsp6ijdfu0CRZszNLwJ/7PpzrD3J5tiFRTLf+0CCXXLw5Hq+jUrR4IeGfbS6+XqNTdA==" saltValue="p93otLXLGQ3TMQiOhNLpfQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="dzIM6MDPZFRoTXvTI4jsbuXaNanj1Vvn5h7Fq0FjPrFC/1w3SW7WqHRbDd01wd0w+Tg5J0fUNNA+VaSETlh3XA==" saltValue="zeMq7Dppg20TbnCKtkpq9w==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="45">
     <mergeCell ref="B145:B147"/>
     <mergeCell ref="B148:B150"/>
@@ -16207,7 +16216,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="/WLdJAr68Gl/eZqiPTbjYgBYOygD6crLTuiAAwqf87RlSZVlkpqw7zf9mAJUxr3f1OOTtG5EgGPWMhkDpbAAIw==" saltValue="Bi6hXY88aLErGEPzUOVhQg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="g1yQNtsZRvMBxyg//DI50hHa8CEfMx/ZGYWJOD7RXtpUiR/EiOGb7yQK83CdOYt2aH4H3qplqoANHZbrDmchMQ==" saltValue="UrJHyEY5/XLvSG4O4Td2ZA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -24346,7 +24355,7 @@
       <c r="I328" s="39"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="AKI9cPGkLy+xBlQ5V0WLeSHwGBEofeW6ctdR70PeKzIQusfIAgTPSwZkRvY2c58dZF/+YBgO5RXX4o77CmGhBw==" saltValue="VqrxsciAvLDHjDeKhFUBow==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="AYEDtSPTs7fxkXs6jY4aP0z1++747zCuJj/0+2UbHutMisMqTkSV/Gph2Xq6H4WwJRofctMgmAUqhl4gmTmU3A==" saltValue="0lTtEvVimFar9owLDaVsag==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -25436,7 +25445,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="vonFWDltl5SL+x8ovAXBw9dTYmvWegRbJErd5nG+/DUARcwURB6wwEhe8TmYJvI/+D5wme58HEiGWQCLzfTCGA==" saltValue="fEO5WjzulkSU+sDrAwLY5Q==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="QyWYhOGG95SB3QVujJy5IErSmQj1rAIYc5uLmRFMQmj0lCjzIkhOtrLEMhOWQf4RODvhbVwd/szaua1PLNjdZA==" saltValue="rQm1e+vn8PLeIqilH4Nrog==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
@@ -26308,7 +26317,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="iB7plftwPchgkoXM7i1TtUAV89daWgBCe1dZSZv7ERGBc9Eia/62c3YLs4Trcp/vqpXyng5saEz5X90YAcg0Vg==" saltValue="hxsYhXVHqWXb+1BuE58HlA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="kaPxpviF/9L5yuvNzHQokzmD0OU7mYPuD8WhgQCtKqMYtm6sg9/XpeDOCnjFFpBF2ffd3A71uC+mq+Rcv3hZSw==" saltValue="U3OsJctj8UHldZK+ks3COg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -29193,7 +29202,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="thwmijyKsjyeJKlEs669of1v4nf74OU6hkvuaXY17w3YJF13RM/14hl/qXLG0Tq9WnK4uvHoGMoeX6sHvtMLJg==" saltValue="IcCPEzPklK6GkoTuUvDsEw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="jPwZ+WC3F+cIi5Z8yA1lWXj6BdyDlUnI0PK6BEwoPH8LYMNSJRQC95SX8FroRK/DWRk1sx1VmK7ED0G2uZc/tg==" saltValue="bvcHGhX8HeDcTCIRprvjgA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -29475,7 +29484,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="8OOueEiP2LoebPSueAR2W4P+hpv1coUyM0EgsP2Twtb9JQ/lGCQVwdrdkp77rbqZdsJ/n16Yfvzsw9qRKFK17A==" saltValue="mQECj1lPuF+PphNC8XIGdA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="NAniiTGsOFFNhn+qUj9i5ogWZDC9vWWzlvSe77/uiYqFsQJEmuaUTDvpkS1hbDx/HCquHBWPUwuHrGuTgI0WAA==" saltValue="WosdGnTmXIE3hoUZG7/21A==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -33590,7 +33599,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="GbqztQjsdqXn4zeIx3O6nnCstSXuXWl/aE+3FefiecaRZTkm02rsVoMpxyirLKP59e4Lfu1WH2U5pBWbIQPy7w==" saltValue="UqHquKZ1sY3k71vfW1JQSg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="sB2qrgYGM4xqgigqylZfEARSpe519XSUtH1VcfrPfJYe49J9fVIN34S/jC3+q8YTTUr6nkWT6cZDc6LqZqwHNQ==" saltValue="rd77jdOIBAUgPhZuIV3Rrg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -34106,7 +34115,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="JULt/gf7vEwQ2oDY/VUekjDGtS+v6hSG7pgjkCcLAhmNqb7qiO20tn4CahtroyEMKptjaphHk4BQH+4B+1lP0g==" saltValue="DvTbw7b954L/lW7louI+TA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="nImSKQVan9q+U2WkdCHy5sgPS+7BlAbFQhHwiRUEykkdLtiP9fWSvIEELBnf0lNQu5bb8iqCBM5jvF4f6/23Ag==" saltValue="kAjwbQ/1/J+lGwRWZfF0iw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -34118,8 +34127,8 @@
   </sheetPr>
   <dimension ref="A1:H35"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView topLeftCell="A2" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -34246,16 +34255,16 @@
       <c r="B13" s="29" t="s">
         <v>82</v>
       </c>
-      <c r="C13" s="18" t="s">
+      <c r="C13" s="102" t="s">
         <v>74</v>
       </c>
-      <c r="D13" s="18" t="s">
+      <c r="D13" s="102" t="s">
         <v>77</v>
       </c>
-      <c r="E13" s="18" t="s">
+      <c r="E13" s="102" t="s">
         <v>75</v>
       </c>
-      <c r="F13" s="18" t="s">
+      <c r="F13" s="102" t="s">
         <v>76</v>
       </c>
       <c r="G13" s="19"/>
@@ -34543,7 +34552,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="87waU4uvjzQSuWQ+f0A9RYR5dHiWHEeuPEVBDcIIow2b8/eUMxrEZTR8Ol4IJDvo1zzsuvpB10BPUqzh61sZYA==" saltValue="p7fNqLIXE3LlXMwQ5vxp0w==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="rvWWhNSQLOIVOeHxNvNWlNTybOBYfHV/KHfDzYOTfU9uJRA3acQnWWH1tehlYXZy4E3QM12iT7jyS3CLTFQa1g==" saltValue="B663H+xHWcP6+75I6JOxAg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" scale="69" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
@@ -34967,7 +34976,7 @@
       <c r="G17" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="mB71LkveJDs/CBEPE2wTK5aWn2mtN9ScppvsvQiopiB2aL8E378pxeY5c+uXPMB2ngqwyQof4t1XjubUJG1U5A==" saltValue="gXc6ZAbJeC5lV/Bw5u+z9Q==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="WrWGiwHC1bJgfE68zhiKJbdt/8P93B1WOvk5NfUfiEi8j17+j1kSXwxJNdMV/TasfvZZREYeWzosr0Ugd+8yDA==" saltValue="BtklvpqOU81805JDv/79AQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
@@ -34982,7 +34991,7 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C2" sqref="C2:G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -35102,7 +35111,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="6qb86zJ/kfZXXjO+Td7FzoK/VVEMKy/5I8vQ1SVXVlYgiioEYobzhPqWOihqFf78VP7OpjNqbcEbF9jgjUhg1w==" saltValue="+aKLY4AHGoojpVXBZQxh8w==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="Qo6FCje+Rr1C6oMV8TLmS5GfLsoFBKfpS6Fw5TFXT3RHYcaRmZTwSw97jhMv6rfGfA2QoNT8LoO+knd7cg5YBw==" saltValue="1SGn68Rxx8DvUUC4cg/SNA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <legacyDrawing r:id="rId1"/>
@@ -35309,7 +35318,7 @@
       <c r="K14" s="23"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="MxYXwOAvs0BKIrYDxBJAudSoysUH7eMUZB88HfvhD6ufnHKyFPCFaaDrXnTHon0by90L7JAvSQ3j7NhMMuqRPg==" saltValue="+XPaHafgl8ubcpoU/NwbLQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="GuUF87IrZOcGnUuBnMH+2nYTT5IYUpcY2NVh8uHMR6etXyGl2/bIoFBp0kRg7pQNKivVDC6KU8gIRmD1+T/kiw==" saltValue="c0hw4QeJu7VNspa/2nEcYw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="193" orientation="portrait"/>
 </worksheet>
@@ -35389,7 +35398,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="0BQC33DwKfH3oksiBfAh4lji+q45OwFwsnmTUOoIBwRn0K+6jOjcY4Cmxr8jpbLvHVKhZC73Yg5p5pHLS7kO5g==" saltValue="SMDPtmBmPUa4jG+R03ocfA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="TwE+2E5ikPwhiIHjk2uHdAeRr+bXtDmVBpm9LNV7ycaWDCl6bBvLrPROM7Axr/O/1szBWQqLbRK/dDZm4d4NcA==" saltValue="Qb9U7u9bhQUBMgTbH3Qpiw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
@@ -35649,7 +35658,7 @@
       <c r="E21" s="47"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="oicuwMxPfyk4ckQjYnjlmTezbBc+HMeMqcFcp0uZ1Lj3XfJIq4Ua6hanhIAB8evaHR980akn5A+093swT29Owg==" saltValue="yJZwdgyqQbbDFs/MWKCEvQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="vRQVvlDchAEa9iGrsJw7qUDz0oa4LVrKHofm8Qc2wyhbCjpVMLdwTufiYEaIH/YrsnU6RHlAOqWyrvLDHLD6Cw==" saltValue="MC6jds/ZhNygp+0yF1PFpQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -35713,7 +35722,7 @@
       <c r="D3" s="47"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="A3xn35XDYi5xue27DwEUF/0HMkDA39lbIod8Xz4I2AqIqAL5UCFKW2HDe0JtgVnd/4WQVEbW44IEi/tajpsI8Q==" saltValue="wyNizG24lEwQXmbp2f2poQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="v2JlXleXOjurMjpjJPDYh2NJrQCono7it4cSeQfH/LTFR+2YlMggp+3R8QRKmId6fDgce1otggawxbahFzOj8w==" saltValue="Yml3c2uYWSLTQOAKGuNf1w==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>